--- a/_data/r.xlsx
+++ b/_data/r.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/SamuelDNinja/Desktop/ccrt.github.io-master/_data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/SamuelDNinja/Desktop/ccup/ccup.github.io/_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A16ECC3-18A9-0040-B784-9578BB5FB48A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{835EBB34-FB01-2C42-8E22-0B43125B972C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="880" yWindow="1460" windowWidth="24640" windowHeight="14000" xr2:uid="{0C80B90B-66E9-1748-BD65-833EC8123034}"/>
   </bookViews>
@@ -27,9 +27,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="189">
   <si>
-    <t>firstname</t>
-  </si>
-  <si>
     <t>Lastname</t>
   </si>
   <si>
@@ -111,9 +108,6 @@
     <t>Victoria.jpg</t>
   </si>
   <si>
-    <t xml:space="preserve">Electronic &amp; Computer Engineering </t>
-  </si>
-  <si>
     <t>Andy</t>
   </si>
   <si>
@@ -171,9 +165,6 @@
     <t>Fareeza.jpg</t>
   </si>
   <si>
-    <t>Electronic &amp; Computer Engineering and Computer Science</t>
-  </si>
-  <si>
     <t>Haomiao</t>
   </si>
   <si>
@@ -592,6 +583,15 @@
   </si>
   <si>
     <t>, R2 &amp; Minibot</t>
+  </si>
+  <si>
+    <t>Firstname</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Electrical &amp; Computer Engineering </t>
+  </si>
+  <si>
+    <t>Electrical &amp; Computer Engineering and CS</t>
   </si>
 </sst>
 </file>
@@ -1068,1352 +1068,1355 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB2B4B30-7D45-0B4F-B741-D7D0B710D0DD}">
   <dimension ref="A1:H57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="G52" sqref="G52"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="29.5" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="H1" s="3" t="s">
         <v>6</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="12">
+        <v>2022</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="14"/>
+      <c r="H2" s="10"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="10"/>
+      <c r="D3" s="17" t="s">
         <v>29</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="E2" s="12">
-        <v>2021</v>
-      </c>
-      <c r="F2" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="G2" s="14" t="s">
-        <v>186</v>
-      </c>
-      <c r="H2" s="10"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="D3" s="17" t="s">
-        <v>31</v>
       </c>
       <c r="E3" s="12">
         <v>2021</v>
       </c>
       <c r="F3" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="H3" s="10"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="G3" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="H3" s="10"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>40</v>
-      </c>
       <c r="C4" s="10" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E4" s="12">
         <v>2021</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="G4" s="14" t="s">
-        <v>186</v>
+        <v>30</v>
+      </c>
+      <c r="G4" s="27" t="s">
+        <v>184</v>
       </c>
       <c r="H4" s="10"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="16" t="s">
-        <v>52</v>
+      <c r="A5" s="15" t="s">
+        <v>37</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E5" s="12">
         <v>2021</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="H5" s="10"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="15" t="s">
-        <v>55</v>
+      <c r="A6" s="16" t="s">
+        <v>49</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E6" s="12">
         <v>2021</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G6" s="14" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="H6" s="10"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="16" t="s">
-        <v>58</v>
+      <c r="A7" s="15" t="s">
+        <v>52</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E7" s="12">
         <v>2021</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G7" s="14" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="H7" s="10"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="15" t="s">
-        <v>60</v>
+      <c r="A8" s="16" t="s">
+        <v>55</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>62</v>
+        <v>56</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>29</v>
       </c>
       <c r="E8" s="12">
         <v>2021</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G8" s="14" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="H8" s="10"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="16" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E9" s="12">
         <v>2021</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G9" s="14" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="H9" s="10"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="20" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E10" s="22">
         <v>2021</v>
       </c>
       <c r="F10" s="23" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G10" s="14" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="H10" s="10"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="B11" s="9" t="s">
         <v>102</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>56</v>
       </c>
       <c r="C11" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="D11" s="11" t="s">
-        <v>28</v>
+      <c r="D11" s="17" t="s">
+        <v>29</v>
       </c>
       <c r="E11" s="12">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G11" s="14" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="H11" s="10"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="15" t="s">
-        <v>104</v>
+      <c r="A12" s="16" t="s">
+        <v>34</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>105</v>
+        <v>35</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>106</v>
+        <v>36</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E12" s="12">
         <v>2022</v>
       </c>
       <c r="F12" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="G12" s="14" t="s">
-        <v>186</v>
+        <v>30</v>
       </c>
       <c r="H12" s="10"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="16" t="s">
-        <v>107</v>
+        <v>40</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>108</v>
+        <v>41</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>28</v>
+        <v>42</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>29</v>
       </c>
       <c r="E13" s="12">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="G13" s="14" t="s">
-        <v>186</v>
+        <v>30</v>
+      </c>
+      <c r="G13" s="27" t="s">
+        <v>184</v>
       </c>
       <c r="H13" s="10"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="16" t="s">
-        <v>113</v>
+        <v>46</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>114</v>
+        <v>47</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>28</v>
+        <v>48</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>29</v>
       </c>
       <c r="E14" s="12">
         <v>2022</v>
       </c>
       <c r="F14" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="G14" s="14" t="s">
-        <v>186</v>
+        <v>30</v>
+      </c>
+      <c r="G14" s="27" t="s">
+        <v>184</v>
       </c>
       <c r="H14" s="10"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="16" t="s">
-        <v>118</v>
+        <v>60</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>119</v>
+        <v>38</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>28</v>
+        <v>61</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>29</v>
       </c>
       <c r="E15" s="12">
         <v>2022</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="G15" s="14" t="s">
-        <v>186</v>
+        <v>30</v>
+      </c>
+      <c r="G15" s="27" t="s">
+        <v>184</v>
       </c>
       <c r="H15" s="10"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="15" t="s">
-        <v>121</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>122</v>
+      <c r="A16" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>66</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>123</v>
+        <v>67</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>124</v>
+        <v>29</v>
       </c>
       <c r="E16" s="12">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="F16" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="G16" s="14" t="s">
-        <v>186</v>
+        <v>30</v>
+      </c>
+      <c r="G16" s="27" t="s">
+        <v>184</v>
       </c>
       <c r="H16" s="10"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="18" t="s">
-        <v>126</v>
-      </c>
-      <c r="B17" s="19" t="s">
-        <v>127</v>
+      <c r="A17" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>77</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>128</v>
+        <v>78</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>124</v>
+        <v>29</v>
       </c>
       <c r="E17" s="12">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="F17" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="G17" s="14" t="s">
-        <v>186</v>
+        <v>30</v>
+      </c>
+      <c r="G17" s="27" t="s">
+        <v>184</v>
       </c>
       <c r="H17" s="10"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="16" t="s">
-        <v>134</v>
+      <c r="A18" s="15" t="s">
+        <v>79</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>136</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="C18" s="10"/>
       <c r="D18" s="17" t="s">
-        <v>124</v>
+        <v>29</v>
       </c>
       <c r="E18" s="12">
         <v>2022</v>
       </c>
       <c r="F18" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="G18" s="14" t="s">
-        <v>186</v>
+        <v>30</v>
+      </c>
+      <c r="G18" s="27" t="s">
+        <v>184</v>
       </c>
       <c r="H18" s="10"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="24" t="s">
-        <v>137</v>
-      </c>
-      <c r="B19" s="25" t="s">
-        <v>56</v>
+      <c r="A19" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>82</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>138</v>
+        <v>83</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>124</v>
-      </c>
-      <c r="E19" s="22">
-        <v>2021</v>
-      </c>
-      <c r="F19" s="26" t="s">
-        <v>125</v>
-      </c>
-      <c r="G19" s="14" t="s">
-        <v>186</v>
+        <v>29</v>
+      </c>
+      <c r="E19" s="12">
+        <v>2022</v>
+      </c>
+      <c r="F19" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="G19" s="27" t="s">
+        <v>184</v>
       </c>
       <c r="H19" s="10"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="16" t="s">
-        <v>141</v>
+        <v>97</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>143</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="C20" s="10"/>
       <c r="D20" s="17" t="s">
-        <v>124</v>
+        <v>29</v>
       </c>
       <c r="E20" s="12">
         <v>2022</v>
       </c>
       <c r="F20" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="G20" s="14" t="s">
-        <v>186</v>
+        <v>94</v>
+      </c>
+      <c r="G20" s="27" t="s">
+        <v>184</v>
       </c>
       <c r="H20" s="10"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" s="16" t="s">
-        <v>147</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>148</v>
+      <c r="A21" s="20" t="s">
+        <v>163</v>
+      </c>
+      <c r="B21" s="21" t="s">
+        <v>164</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="D21" s="17" t="s">
-        <v>124</v>
-      </c>
-      <c r="E21" s="12">
-        <v>2022</v>
+        <v>165</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E21" s="22">
+        <v>2020</v>
       </c>
       <c r="F21" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="G21" s="14" t="s">
-        <v>186</v>
+        <v>166</v>
+      </c>
+      <c r="G21" s="27" t="s">
+        <v>184</v>
       </c>
       <c r="H21" s="10"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="16" t="s">
-        <v>157</v>
+        <v>15</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>159</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="C22" s="10"/>
       <c r="D22" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="E22" s="12" t="s">
-        <v>23</v>
+        <v>17</v>
+      </c>
+      <c r="E22" s="12">
+        <v>2022</v>
       </c>
       <c r="F22" s="13" t="s">
-        <v>154</v>
-      </c>
-      <c r="G22" s="14" t="s">
-        <v>186</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="G22" s="14"/>
       <c r="H22" s="10"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="16" t="s">
-        <v>160</v>
+        <v>99</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>161</v>
+        <v>53</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>162</v>
+        <v>100</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="E23" s="12" t="s">
-        <v>23</v>
+        <v>187</v>
+      </c>
+      <c r="E23" s="12">
+        <v>2021</v>
       </c>
       <c r="F23" s="13" t="s">
-        <v>154</v>
+        <v>94</v>
       </c>
       <c r="G23" s="14" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="H23" s="10"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" s="15" t="s">
-        <v>163</v>
+      <c r="A24" s="16" t="s">
+        <v>104</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>164</v>
+        <v>105</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>165</v>
+        <v>106</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="E24" s="12" t="s">
-        <v>23</v>
+        <v>187</v>
+      </c>
+      <c r="E24" s="12">
+        <v>2021</v>
       </c>
       <c r="F24" s="13" t="s">
-        <v>154</v>
+        <v>94</v>
       </c>
       <c r="G24" s="14" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="H24" s="10"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="16" t="s">
-        <v>36</v>
+        <v>110</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>37</v>
+        <v>111</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="D25" s="17" t="s">
-        <v>31</v>
+        <v>112</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>187</v>
       </c>
       <c r="E25" s="12">
         <v>2022</v>
       </c>
       <c r="F25" s="13" t="s">
-        <v>32</v>
+        <v>94</v>
+      </c>
+      <c r="G25" s="14" t="s">
+        <v>183</v>
       </c>
       <c r="H25" s="10"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="16" t="s">
-        <v>42</v>
+        <v>115</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>43</v>
+        <v>116</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="D26" s="17" t="s">
-        <v>31</v>
+        <v>117</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>187</v>
       </c>
       <c r="E26" s="12">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="F26" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="G26" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="G26" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="H26" s="10"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="D27" s="11" t="s">
         <v>187</v>
       </c>
-      <c r="H26" s="10"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="B27" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="C27" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="D27" s="11" t="s">
-        <v>48</v>
-      </c>
       <c r="E27" s="12">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="F27" s="13" t="s">
-        <v>32</v>
+        <v>94</v>
       </c>
       <c r="G27" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="H27" s="10"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="C28" s="10"/>
+      <c r="D28" s="11" t="s">
         <v>187</v>
-      </c>
-      <c r="H27" s="10"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="B28" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="C28" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="D28" s="17" t="s">
-        <v>31</v>
       </c>
       <c r="E28" s="12">
         <v>2022</v>
       </c>
       <c r="F28" s="13" t="s">
-        <v>32</v>
+        <v>94</v>
       </c>
       <c r="G28" s="27" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="H28" s="10"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="16" t="s">
-        <v>63</v>
+        <v>113</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="C29" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="D29" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="E29" s="12">
-        <v>2022</v>
+        <v>114</v>
+      </c>
+      <c r="C29" s="10"/>
+      <c r="D29" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="E29" s="12" t="s">
+        <v>22</v>
       </c>
       <c r="F29" s="13" t="s">
-        <v>32</v>
+        <v>94</v>
       </c>
       <c r="G29" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="H29" s="10"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="D30" s="11" t="s">
         <v>187</v>
       </c>
-      <c r="H29" s="10"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="B30" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="D30" s="17" t="s">
-        <v>31</v>
-      </c>
       <c r="E30" s="12">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="F30" s="13" t="s">
-        <v>32</v>
+        <v>94</v>
       </c>
       <c r="G30" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="H30" s="10"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" s="11" t="s">
         <v>187</v>
       </c>
-      <c r="H30" s="10"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="B31" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="C31" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="D31" s="17" t="s">
-        <v>74</v>
-      </c>
       <c r="E31" s="12">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="F31" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="G31" s="27" t="s">
-        <v>187</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="G31" s="14"/>
       <c r="H31" s="10"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="16" t="s">
-        <v>75</v>
+        <v>43</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>76</v>
+        <v>44</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>78</v>
+        <v>188</v>
       </c>
       <c r="E32" s="12">
+        <v>2021</v>
+      </c>
+      <c r="F32" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="G32" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="H32" s="10"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="E33" s="12">
+        <v>2021</v>
+      </c>
+      <c r="F33" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="G33" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="H33" s="10"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="B34" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="D34" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="E34" s="22">
         <v>2022</v>
       </c>
-      <c r="F32" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="G32" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="H32" s="10"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A33" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="B33" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="C33" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="D33" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="E33" s="12">
-        <v>2020</v>
-      </c>
-      <c r="F33" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="G33" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="H33" s="10"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A34" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="B34" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="C34" s="10"/>
-      <c r="D34" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="E34" s="12">
-        <v>2022</v>
-      </c>
-      <c r="F34" s="13" t="s">
-        <v>32</v>
+      <c r="F34" s="23" t="s">
+        <v>30</v>
       </c>
       <c r="G34" s="27" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="H34" s="10"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="16" t="s">
-        <v>84</v>
+        <v>167</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="D35" s="17" t="s">
-        <v>31</v>
+        <v>168</v>
+      </c>
+      <c r="D35" s="11" t="s">
+        <v>169</v>
       </c>
       <c r="E35" s="12">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="F35" s="13" t="s">
-        <v>32</v>
+        <v>170</v>
       </c>
       <c r="G35" s="27" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="H35" s="10"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A36" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="B36" s="21" t="s">
-        <v>88</v>
-      </c>
-      <c r="C36" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="D36" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="E36" s="22">
-        <v>2022</v>
-      </c>
-      <c r="F36" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="G36" s="27" t="s">
-        <v>187</v>
-      </c>
+      <c r="A36" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C36" s="10"/>
+      <c r="D36" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E36" s="12">
+        <v>2021</v>
+      </c>
+      <c r="F36" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G36" s="14"/>
       <c r="H36" s="10"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A37" s="15" t="s">
-        <v>94</v>
+      <c r="A37" s="16" t="s">
+        <v>72</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="D37" s="11" t="s">
-        <v>28</v>
+        <v>75</v>
       </c>
       <c r="E37" s="12">
         <v>2022</v>
       </c>
       <c r="F37" s="13" t="s">
-        <v>97</v>
+        <v>30</v>
       </c>
       <c r="G37" s="27" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="H37" s="10"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="15" t="s">
-        <v>98</v>
+        <v>118</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="C38" s="10"/>
-      <c r="D38" s="11" t="s">
-        <v>28</v>
+        <v>119</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="D38" s="17" t="s">
+        <v>121</v>
       </c>
       <c r="E38" s="12">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="F38" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="G38" s="27" t="s">
-        <v>187</v>
+        <v>122</v>
+      </c>
+      <c r="G38" s="14" t="s">
+        <v>183</v>
       </c>
       <c r="H38" s="10"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A39" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="B39" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="C39" s="10"/>
+      <c r="A39" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="B39" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>125</v>
+      </c>
       <c r="D39" s="17" t="s">
-        <v>31</v>
+        <v>121</v>
       </c>
       <c r="E39" s="12">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="F39" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="G39" s="27" t="s">
-        <v>187</v>
+        <v>122</v>
+      </c>
+      <c r="G39" s="14" t="s">
+        <v>183</v>
       </c>
       <c r="H39" s="10"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="16" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="C40" s="10"/>
-      <c r="D40" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="E40" s="12" t="s">
-        <v>23</v>
+        <v>132</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="D40" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="E40" s="12">
+        <v>2022</v>
       </c>
       <c r="F40" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="G40" s="27" t="s">
-        <v>187</v>
+        <v>122</v>
+      </c>
+      <c r="G40" s="14" t="s">
+        <v>183</v>
       </c>
       <c r="H40" s="10"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A41" s="16" t="s">
-        <v>129</v>
-      </c>
-      <c r="B41" s="9" t="s">
-        <v>130</v>
+      <c r="A41" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="B41" s="25" t="s">
+        <v>53</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>124</v>
-      </c>
-      <c r="E41" s="12">
-        <v>2020</v>
-      </c>
-      <c r="F41" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="G41" s="27" t="s">
-        <v>187</v>
+        <v>121</v>
+      </c>
+      <c r="E41" s="22">
+        <v>2021</v>
+      </c>
+      <c r="F41" s="26" t="s">
+        <v>122</v>
+      </c>
+      <c r="G41" s="14" t="s">
+        <v>183</v>
       </c>
       <c r="H41" s="10"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="16" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="C42" s="10"/>
+        <v>139</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>140</v>
+      </c>
       <c r="D42" s="17" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E42" s="12">
         <v>2022</v>
       </c>
       <c r="F42" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="G42" s="27" t="s">
-        <v>187</v>
+        <v>122</v>
+      </c>
+      <c r="G42" s="14" t="s">
+        <v>183</v>
       </c>
       <c r="H42" s="10"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="16" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="C43" s="10"/>
+        <v>145</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>146</v>
+      </c>
       <c r="D43" s="17" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E43" s="12">
+        <v>2022</v>
+      </c>
+      <c r="F43" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="G43" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="H43" s="10"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A44" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="B44" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="D44" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="E44" s="12">
         <v>2020</v>
       </c>
-      <c r="F43" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="G43" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="H43" s="10"/>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A44" s="15" t="s">
-        <v>150</v>
-      </c>
-      <c r="B44" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="C44" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="D44" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="E44" s="12" t="s">
-        <v>23</v>
-      </c>
       <c r="F44" s="13" t="s">
-        <v>154</v>
+        <v>122</v>
       </c>
       <c r="G44" s="27" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="H44" s="10"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="16" t="s">
-        <v>155</v>
+        <v>129</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>156</v>
+        <v>130</v>
       </c>
       <c r="C45" s="10"/>
-      <c r="D45" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="E45" s="12" t="s">
-        <v>23</v>
+      <c r="D45" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="E45" s="12">
+        <v>2022</v>
       </c>
       <c r="F45" s="13" t="s">
-        <v>154</v>
+        <v>122</v>
       </c>
       <c r="G45" s="27" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="H45" s="10"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A46" s="20" t="s">
-        <v>166</v>
-      </c>
-      <c r="B46" s="21" t="s">
-        <v>167</v>
-      </c>
-      <c r="C46" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="D46" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="E46" s="22">
+      <c r="A46" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="B46" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="C46" s="10"/>
+      <c r="D46" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="E46" s="12">
         <v>2020</v>
       </c>
       <c r="F46" s="13" t="s">
-        <v>169</v>
+        <v>122</v>
       </c>
       <c r="G46" s="27" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="H46" s="10"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A47" s="16" t="s">
-        <v>170</v>
-      </c>
-      <c r="B47" s="9" t="s">
-        <v>85</v>
+      <c r="A47" s="20" t="s">
+        <v>171</v>
+      </c>
+      <c r="B47" s="21" t="s">
+        <v>172</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="D47" s="11" t="s">
-        <v>172</v>
-      </c>
-      <c r="E47" s="12">
-        <v>2020</v>
+        <v>173</v>
+      </c>
+      <c r="D47" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="E47" s="12" t="s">
+        <v>22</v>
       </c>
       <c r="F47" s="13" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="G47" s="27" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="H47" s="10"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A48" s="20" t="s">
-        <v>174</v>
-      </c>
-      <c r="B48" s="21" t="s">
+      <c r="A48" s="16" t="s">
         <v>175</v>
       </c>
+      <c r="B48" s="9" t="s">
+        <v>176</v>
+      </c>
       <c r="C48" s="10" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>124</v>
-      </c>
-      <c r="E48" s="12" t="s">
-        <v>23</v>
+        <v>121</v>
+      </c>
+      <c r="E48" s="12">
+        <v>2019</v>
       </c>
       <c r="F48" s="13" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G48" s="27" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="H48" s="10"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="16" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E49" s="12">
         <v>2019</v>
       </c>
       <c r="F49" s="13" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="G49" s="27" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="H49" s="10"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="16" t="s">
-        <v>182</v>
+        <v>141</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>183</v>
+        <v>142</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>184</v>
+        <v>143</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E50" s="12">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="F50" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="G50" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="G50" s="27" t="s">
-        <v>187</v>
       </c>
       <c r="H50" s="10"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" s="16" t="s">
-        <v>110</v>
+        <v>68</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>111</v>
+        <v>69</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="D51" s="11" t="s">
-        <v>28</v>
+        <v>70</v>
+      </c>
+      <c r="D51" s="17" t="s">
+        <v>71</v>
       </c>
       <c r="E51" s="12">
         <v>2021</v>
       </c>
       <c r="F51" s="13" t="s">
-        <v>97</v>
+        <v>30</v>
       </c>
       <c r="G51" s="27" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="H51" s="10"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A52" s="16" t="s">
-        <v>144</v>
+      <c r="A52" s="15" t="s">
+        <v>18</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>145</v>
+        <v>19</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="D52" s="17" t="s">
-        <v>124</v>
-      </c>
-      <c r="E52" s="12">
-        <v>2021</v>
+        <v>20</v>
+      </c>
+      <c r="D52" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E52" s="12" t="s">
+        <v>22</v>
       </c>
       <c r="F52" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="G52" s="7" t="s">
-        <v>188</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G52" s="14"/>
       <c r="H52" s="10"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A53" s="15" t="s">
-        <v>8</v>
+      <c r="A53" s="16" t="s">
+        <v>154</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>9</v>
+        <v>155</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>10</v>
+        <v>156</v>
       </c>
       <c r="D53" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E53" s="12">
-        <v>2022</v>
+        <v>150</v>
+      </c>
+      <c r="E53" s="12" t="s">
+        <v>22</v>
       </c>
       <c r="F53" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G53" s="14"/>
+        <v>151</v>
+      </c>
+      <c r="G53" s="14" t="s">
+        <v>183</v>
+      </c>
       <c r="H53" s="10"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A54" s="15" t="s">
-        <v>13</v>
+      <c r="A54" s="16" t="s">
+        <v>157</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C54" s="10"/>
+        <v>158</v>
+      </c>
+      <c r="C54" s="10" t="s">
+        <v>159</v>
+      </c>
       <c r="D54" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E54" s="12">
-        <v>2021</v>
+        <v>150</v>
+      </c>
+      <c r="E54" s="12" t="s">
+        <v>22</v>
       </c>
       <c r="F54" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G54" s="14"/>
+        <v>151</v>
+      </c>
+      <c r="G54" s="14" t="s">
+        <v>183</v>
+      </c>
       <c r="H54" s="10"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A55" s="16" t="s">
-        <v>16</v>
+      <c r="A55" s="15" t="s">
+        <v>160</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C55" s="10"/>
+        <v>161</v>
+      </c>
+      <c r="C55" s="10" t="s">
+        <v>162</v>
+      </c>
       <c r="D55" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E55" s="12">
-        <v>2022</v>
+        <v>150</v>
+      </c>
+      <c r="E55" s="12" t="s">
+        <v>22</v>
       </c>
       <c r="F55" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G55" s="14"/>
+        <v>151</v>
+      </c>
+      <c r="G55" s="14" t="s">
+        <v>183</v>
+      </c>
       <c r="H55" s="10"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" s="15" t="s">
-        <v>19</v>
+        <v>147</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>20</v>
+        <v>148</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>21</v>
+        <v>149</v>
       </c>
       <c r="D56" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="E56" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="E56" s="12" t="s">
-        <v>23</v>
-      </c>
       <c r="F56" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="G56" s="14"/>
+        <v>151</v>
+      </c>
+      <c r="G56" s="27" t="s">
+        <v>184</v>
+      </c>
       <c r="H56" s="10"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A57" s="15" t="s">
-        <v>25</v>
+      <c r="A57" s="16" t="s">
+        <v>152</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C57" s="10" t="s">
-        <v>27</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="C57" s="10"/>
       <c r="D57" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="E57" s="12">
-        <v>2019</v>
+        <v>150</v>
+      </c>
+      <c r="E57" s="12" t="s">
+        <v>22</v>
       </c>
       <c r="F57" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G57" s="14"/>
+        <v>151</v>
+      </c>
+      <c r="G57" s="27" t="s">
+        <v>184</v>
+      </c>
       <c r="H57" s="10"/>
     </row>
   </sheetData>
   <sortState ref="A2:H57">
-    <sortCondition ref="G1"/>
+    <sortCondition ref="D8"/>
   </sortState>
   <conditionalFormatting sqref="F54:F57 F1:F52">
     <cfRule type="notContainsBlanks" dxfId="1" priority="2">

--- a/_data/r.xlsx
+++ b/_data/r.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/SamuelDNinja/Desktop/ccup/ccup.github.io/_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{835EBB34-FB01-2C42-8E22-0B43125B972C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B920B86C-4BC5-BF4E-AC27-E4DA25C87CE8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="880" yWindow="1460" windowWidth="24640" windowHeight="14000" xr2:uid="{0C80B90B-66E9-1748-BD65-833EC8123034}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="188">
   <si>
     <t>Lastname</t>
   </si>
@@ -90,12 +90,6 @@
     <t>Shelley.JPG</t>
   </si>
   <si>
-    <t>Operations Research</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M.Eng. </t>
-  </si>
-  <si>
     <t>Team Lead (Communications)</t>
   </si>
   <si>
@@ -477,9 +471,6 @@
     <t>David.jpg</t>
   </si>
   <si>
-    <t>Systems Engineering</t>
-  </si>
-  <si>
     <t>Systems</t>
   </si>
   <si>
@@ -561,9 +552,6 @@
     <t>Ian.JPG</t>
   </si>
   <si>
-    <t>Team Lead (Precision Arm)</t>
-  </si>
-  <si>
     <t>Jordan</t>
   </si>
   <si>
@@ -573,9 +561,6 @@
     <t>Jordan.JPG</t>
   </si>
   <si>
-    <t>Team Lead (Strong Arm)</t>
-  </si>
-  <si>
     <t>, BuddyBot/Minibot</t>
   </si>
   <si>
@@ -592,6 +577,18 @@
   </si>
   <si>
     <t>Electrical &amp; Computer Engineering and CS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M.Eng. Electrical &amp; Computer Engineering </t>
+  </si>
+  <si>
+    <t>M.Eng. Mechanical Engineering</t>
+  </si>
+  <si>
+    <t>M.Eng. Operations Research</t>
+  </si>
+  <si>
+    <t>M.Eng. Systems Engineering</t>
   </si>
 </sst>
 </file>
@@ -1068,18 +1065,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB2B4B30-7D45-0B4F-B741-D7D0B710D0DD}">
   <dimension ref="A1:H57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="D52" sqref="D52"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="F52" sqref="F52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="4" max="4" width="29.5" customWidth="1"/>
+    <col min="6" max="6" width="37.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1105,19 +1103,19 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>10</v>
+        <v>182</v>
       </c>
       <c r="E2" s="12">
-        <v>2022</v>
+        <v>2019</v>
       </c>
       <c r="F2" s="13" t="s">
         <v>11</v>
@@ -1126,1151 +1124,1151 @@
       <c r="H2" s="10"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="15" t="s">
-        <v>27</v>
+      <c r="A3" s="16" t="s">
+        <v>172</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" s="10"/>
+        <v>173</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>174</v>
+      </c>
       <c r="D3" s="17" t="s">
-        <v>29</v>
+        <v>119</v>
       </c>
       <c r="E3" s="12">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="G3" s="14" t="s">
-        <v>183</v>
+        <v>171</v>
+      </c>
+      <c r="G3" s="27" t="s">
+        <v>179</v>
       </c>
       <c r="H3" s="10"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="16" t="s">
-        <v>31</v>
+        <v>175</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>32</v>
+        <v>176</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>33</v>
+        <v>177</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>29</v>
+        <v>119</v>
       </c>
       <c r="E4" s="12">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="G4" s="27" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="H4" s="10"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="15" t="s">
-        <v>37</v>
+      <c r="A5" s="16" t="s">
+        <v>38</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E5" s="12">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="G5" s="14" t="s">
-        <v>183</v>
+        <v>28</v>
+      </c>
+      <c r="G5" s="27" t="s">
+        <v>179</v>
       </c>
       <c r="H5" s="10"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
-        <v>49</v>
+        <v>74</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>51</v>
+        <v>76</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E6" s="12">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="14" t="s">
-        <v>183</v>
+        <v>28</v>
+      </c>
+      <c r="G6" s="27" t="s">
+        <v>179</v>
       </c>
       <c r="H6" s="10"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>53</v>
+      <c r="A7" s="20" t="s">
+        <v>160</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>161</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="D7" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" s="12">
-        <v>2021</v>
+        <v>162</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="22">
+        <v>2020</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="G7" s="14" t="s">
-        <v>183</v>
+        <v>163</v>
+      </c>
+      <c r="G7" s="27" t="s">
+        <v>179</v>
       </c>
       <c r="H7" s="10"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="16" t="s">
-        <v>55</v>
+        <v>164</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>19</v>
+        <v>80</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="D8" s="17" t="s">
-        <v>29</v>
+        <v>165</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>166</v>
       </c>
       <c r="E8" s="12">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="G8" s="14" t="s">
-        <v>183</v>
+        <v>167</v>
+      </c>
+      <c r="G8" s="27" t="s">
+        <v>179</v>
       </c>
       <c r="H8" s="10"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="16" t="s">
-        <v>62</v>
+        <v>124</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>63</v>
+        <v>125</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>64</v>
+        <v>126</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>29</v>
+        <v>119</v>
       </c>
       <c r="E9" s="12">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="14" t="s">
-        <v>183</v>
+        <v>120</v>
+      </c>
+      <c r="G9" s="27" t="s">
+        <v>179</v>
       </c>
       <c r="H9" s="10"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="B10" s="21" t="s">
-        <v>89</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" s="22">
-        <v>2021</v>
-      </c>
-      <c r="F10" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="G10" s="14" t="s">
-        <v>183</v>
+      <c r="A10" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="C10" s="10"/>
+      <c r="D10" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="E10" s="12">
+        <v>2020</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="G10" s="27" t="s">
+        <v>179</v>
       </c>
       <c r="H10" s="10"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="15" t="s">
-        <v>101</v>
+        <v>25</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>103</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="C11" s="10"/>
       <c r="D11" s="17" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E11" s="12">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>94</v>
+        <v>28</v>
       </c>
       <c r="G11" s="14" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="H11" s="10"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="16" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B12" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="12">
+        <v>2021</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12" s="27" t="s">
+        <v>179</v>
+      </c>
+      <c r="H12" s="10"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="B13" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="E12" s="12">
-        <v>2022</v>
-      </c>
-      <c r="F12" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" s="10"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>41</v>
-      </c>
       <c r="C13" s="10" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E13" s="12">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="G13" s="27" t="s">
-        <v>184</v>
+        <v>28</v>
+      </c>
+      <c r="G13" s="14" t="s">
+        <v>178</v>
       </c>
       <c r="H13" s="10"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E14" s="12">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="F14" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="G14" s="27" t="s">
-        <v>184</v>
+        <v>28</v>
+      </c>
+      <c r="G14" s="14" t="s">
+        <v>178</v>
       </c>
       <c r="H14" s="10"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="16" t="s">
-        <v>60</v>
+      <c r="A15" s="15" t="s">
+        <v>50</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E15" s="12">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="27" t="s">
-        <v>184</v>
+        <v>28</v>
+      </c>
+      <c r="G15" s="14" t="s">
+        <v>178</v>
       </c>
       <c r="H15" s="10"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="B16" s="19" t="s">
-        <v>66</v>
+      <c r="A16" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>19</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E16" s="12">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="F16" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="G16" s="27" t="s">
-        <v>184</v>
+        <v>28</v>
+      </c>
+      <c r="G16" s="14" t="s">
+        <v>178</v>
       </c>
       <c r="H16" s="10"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="16" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E17" s="12">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F17" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="G17" s="27" t="s">
-        <v>184</v>
+        <v>163</v>
+      </c>
+      <c r="G17" s="14" t="s">
+        <v>178</v>
       </c>
       <c r="H17" s="10"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="C18" s="10"/>
-      <c r="D18" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="E18" s="12">
-        <v>2022</v>
-      </c>
-      <c r="F18" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="G18" s="27" t="s">
-        <v>184</v>
+      <c r="A18" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="B18" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18" s="22">
+        <v>2021</v>
+      </c>
+      <c r="F18" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="G18" s="14" t="s">
+        <v>178</v>
       </c>
       <c r="H18" s="10"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="16" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>82</v>
+        <v>51</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="D19" s="17" t="s">
-        <v>29</v>
+        <v>98</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>182</v>
       </c>
       <c r="E19" s="12">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="F19" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="G19" s="27" t="s">
-        <v>184</v>
+        <v>92</v>
+      </c>
+      <c r="G19" s="14" t="s">
+        <v>178</v>
       </c>
       <c r="H19" s="10"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="16" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="C20" s="10"/>
-      <c r="D20" s="17" t="s">
-        <v>29</v>
+        <v>103</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>182</v>
       </c>
       <c r="E20" s="12">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="F20" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="G20" s="27" t="s">
-        <v>184</v>
+        <v>92</v>
+      </c>
+      <c r="G20" s="14" t="s">
+        <v>178</v>
       </c>
       <c r="H20" s="10"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" s="20" t="s">
-        <v>163</v>
-      </c>
-      <c r="B21" s="21" t="s">
-        <v>164</v>
+      <c r="A21" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>106</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="D21" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="E21" s="22">
-        <v>2020</v>
+        <v>107</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="E21" s="12">
+        <v>2021</v>
       </c>
       <c r="F21" s="13" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G21" s="27" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="H21" s="10"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="16" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C22" s="10"/>
+        <v>42</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>43</v>
+      </c>
       <c r="D22" s="11" t="s">
-        <v>17</v>
+        <v>183</v>
       </c>
       <c r="E22" s="12">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="F22" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G22" s="14"/>
+        <v>28</v>
+      </c>
+      <c r="G22" s="27" t="s">
+        <v>179</v>
+      </c>
       <c r="H22" s="10"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" s="16" t="s">
-        <v>99</v>
+      <c r="A23" s="15" t="s">
+        <v>55</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>100</v>
+        <v>56</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>187</v>
+        <v>57</v>
       </c>
       <c r="E23" s="12">
         <v>2021</v>
       </c>
       <c r="F23" s="13" t="s">
-        <v>94</v>
+        <v>28</v>
       </c>
       <c r="G23" s="14" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="H23" s="10"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" s="16" t="s">
-        <v>104</v>
+      <c r="A24" s="15" t="s">
+        <v>12</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>106</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="C24" s="10"/>
       <c r="D24" s="11" t="s">
-        <v>187</v>
+        <v>14</v>
       </c>
       <c r="E24" s="12">
         <v>2021</v>
       </c>
       <c r="F24" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="G24" s="14" t="s">
-        <v>183</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="G24" s="14"/>
       <c r="H24" s="10"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" s="16" t="s">
-        <v>110</v>
+      <c r="A25" s="15" t="s">
+        <v>116</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="D25" s="11" t="s">
-        <v>187</v>
+        <v>118</v>
+      </c>
+      <c r="D25" s="17" t="s">
+        <v>119</v>
       </c>
       <c r="E25" s="12">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="F25" s="13" t="s">
-        <v>94</v>
+        <v>120</v>
       </c>
       <c r="G25" s="14" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="H25" s="10"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="B26" s="9" t="s">
-        <v>116</v>
+      <c r="A26" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="B26" s="19" t="s">
+        <v>122</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="D26" s="11" t="s">
-        <v>187</v>
+        <v>123</v>
+      </c>
+      <c r="D26" s="17" t="s">
+        <v>119</v>
       </c>
       <c r="E26" s="12">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="F26" s="13" t="s">
-        <v>94</v>
+        <v>120</v>
       </c>
       <c r="G26" s="14" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="H26" s="10"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="B27" s="9" t="s">
-        <v>92</v>
+      <c r="A27" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="B27" s="25" t="s">
+        <v>51</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="D27" s="11" t="s">
-        <v>187</v>
-      </c>
-      <c r="E27" s="12">
-        <v>2022</v>
-      </c>
-      <c r="F27" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="G27" s="27" t="s">
-        <v>184</v>
+        <v>133</v>
+      </c>
+      <c r="D27" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="E27" s="22">
+        <v>2021</v>
+      </c>
+      <c r="F27" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="G27" s="14" t="s">
+        <v>178</v>
       </c>
       <c r="H27" s="10"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" s="15" t="s">
-        <v>95</v>
+      <c r="A28" s="16" t="s">
+        <v>139</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="C28" s="10"/>
-      <c r="D28" s="11" t="s">
-        <v>187</v>
+        <v>140</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="D28" s="17" t="s">
+        <v>119</v>
       </c>
       <c r="E28" s="12">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="F28" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="G28" s="27" t="s">
-        <v>184</v>
+        <v>120</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>180</v>
       </c>
       <c r="H28" s="10"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="16" t="s">
-        <v>113</v>
+        <v>66</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="C29" s="10"/>
-      <c r="D29" s="11" t="s">
-        <v>187</v>
-      </c>
-      <c r="E29" s="12" t="s">
-        <v>22</v>
+        <v>67</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="D29" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="E29" s="12">
+        <v>2021</v>
       </c>
       <c r="F29" s="13" t="s">
-        <v>94</v>
+        <v>28</v>
       </c>
       <c r="G29" s="27" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="H29" s="10"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" s="16" t="s">
-        <v>107</v>
+      <c r="A30" s="15" t="s">
+        <v>7</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>108</v>
+        <v>8</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>109</v>
+        <v>9</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>187</v>
+        <v>10</v>
       </c>
       <c r="E30" s="12">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="F30" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="G30" s="27" t="s">
-        <v>185</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="G30" s="14"/>
       <c r="H30" s="10"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31" s="15" t="s">
-        <v>24</v>
+      <c r="A31" s="16" t="s">
+        <v>32</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D31" s="11" t="s">
-        <v>187</v>
+        <v>34</v>
+      </c>
+      <c r="D31" s="17" t="s">
+        <v>27</v>
       </c>
       <c r="E31" s="12">
-        <v>2019</v>
+        <v>2022</v>
       </c>
       <c r="F31" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G31" s="14"/>
+        <v>28</v>
+      </c>
       <c r="H31" s="10"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="D32" s="11" t="s">
-        <v>188</v>
+        <v>46</v>
+      </c>
+      <c r="D32" s="17" t="s">
+        <v>27</v>
       </c>
       <c r="E32" s="12">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="F32" s="13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G32" s="27" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="H32" s="10"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A33" s="15" t="s">
-        <v>57</v>
+      <c r="A33" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="D33" s="11" t="s">
         <v>59</v>
       </c>
+      <c r="D33" s="17" t="s">
+        <v>27</v>
+      </c>
       <c r="E33" s="12">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="F33" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="G33" s="14" t="s">
-        <v>183</v>
+        <v>28</v>
+      </c>
+      <c r="G33" s="27" t="s">
+        <v>179</v>
       </c>
       <c r="H33" s="10"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A34" s="20" t="s">
-        <v>84</v>
-      </c>
-      <c r="B34" s="21" t="s">
-        <v>85</v>
+      <c r="A34" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="B34" s="19" t="s">
+        <v>64</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="D34" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="E34" s="22">
+        <v>65</v>
+      </c>
+      <c r="D34" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E34" s="12">
         <v>2022</v>
       </c>
-      <c r="F34" s="23" t="s">
-        <v>30</v>
+      <c r="F34" s="13" t="s">
+        <v>28</v>
       </c>
       <c r="G34" s="27" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="H34" s="10"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A35" s="16" t="s">
-        <v>167</v>
+      <c r="A35" s="15" t="s">
+        <v>77</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="C35" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="D35" s="11" t="s">
-        <v>169</v>
+        <v>78</v>
+      </c>
+      <c r="C35" s="10"/>
+      <c r="D35" s="17" t="s">
+        <v>27</v>
       </c>
       <c r="E35" s="12">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="F35" s="13" t="s">
-        <v>170</v>
+        <v>28</v>
       </c>
       <c r="G35" s="27" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="H35" s="10"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A36" s="15" t="s">
-        <v>12</v>
+      <c r="A36" s="16" t="s">
+        <v>79</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C36" s="10"/>
-      <c r="D36" s="11" t="s">
-        <v>14</v>
+        <v>80</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="D36" s="17" t="s">
+        <v>27</v>
       </c>
       <c r="E36" s="12">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="F36" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G36" s="14"/>
+        <v>28</v>
+      </c>
+      <c r="G36" s="27" t="s">
+        <v>179</v>
+      </c>
       <c r="H36" s="10"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A37" s="16" t="s">
-        <v>72</v>
+      <c r="A37" s="15" t="s">
+        <v>99</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>73</v>
+        <v>100</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="D37" s="11" t="s">
-        <v>75</v>
+        <v>101</v>
+      </c>
+      <c r="D37" s="17" t="s">
+        <v>27</v>
       </c>
       <c r="E37" s="12">
         <v>2022</v>
       </c>
       <c r="F37" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="G37" s="27" t="s">
-        <v>184</v>
+        <v>92</v>
+      </c>
+      <c r="G37" s="14" t="s">
+        <v>178</v>
       </c>
       <c r="H37" s="10"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A38" s="15" t="s">
-        <v>118</v>
+      <c r="A38" s="16" t="s">
+        <v>95</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="C38" s="10" t="s">
-        <v>120</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="C38" s="10"/>
       <c r="D38" s="17" t="s">
-        <v>121</v>
+        <v>27</v>
       </c>
       <c r="E38" s="12">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="F38" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="G38" s="14" t="s">
-        <v>183</v>
+        <v>92</v>
+      </c>
+      <c r="G38" s="27" t="s">
+        <v>179</v>
       </c>
       <c r="H38" s="10"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A39" s="18" t="s">
-        <v>123</v>
-      </c>
-      <c r="B39" s="19" t="s">
-        <v>124</v>
-      </c>
-      <c r="C39" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="D39" s="17" t="s">
-        <v>121</v>
+      <c r="A39" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C39" s="10"/>
+      <c r="D39" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="E39" s="12">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="F39" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="G39" s="14" t="s">
-        <v>183</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="G39" s="14"/>
       <c r="H39" s="10"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="16" t="s">
-        <v>131</v>
+        <v>108</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>132</v>
+        <v>109</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="D40" s="17" t="s">
-        <v>121</v>
+        <v>110</v>
+      </c>
+      <c r="D40" s="11" t="s">
+        <v>182</v>
       </c>
       <c r="E40" s="12">
         <v>2022</v>
       </c>
       <c r="F40" s="13" t="s">
-        <v>122</v>
+        <v>92</v>
       </c>
       <c r="G40" s="14" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="H40" s="10"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A41" s="24" t="s">
-        <v>134</v>
-      </c>
-      <c r="B41" s="25" t="s">
-        <v>53</v>
+      <c r="A41" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>114</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="D41" s="17" t="s">
-        <v>121</v>
-      </c>
-      <c r="E41" s="22">
-        <v>2021</v>
-      </c>
-      <c r="F41" s="26" t="s">
-        <v>122</v>
+        <v>115</v>
+      </c>
+      <c r="D41" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="E41" s="12">
+        <v>2022</v>
+      </c>
+      <c r="F41" s="13" t="s">
+        <v>92</v>
       </c>
       <c r="G41" s="14" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="H41" s="10"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A42" s="16" t="s">
-        <v>138</v>
+      <c r="A42" s="15" t="s">
+        <v>89</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>139</v>
+        <v>90</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="D42" s="17" t="s">
-        <v>121</v>
+        <v>91</v>
+      </c>
+      <c r="D42" s="11" t="s">
+        <v>182</v>
       </c>
       <c r="E42" s="12">
         <v>2022</v>
       </c>
       <c r="F42" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="G42" s="14" t="s">
-        <v>183</v>
+        <v>92</v>
+      </c>
+      <c r="G42" s="27" t="s">
+        <v>179</v>
       </c>
       <c r="H42" s="10"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A43" s="16" t="s">
-        <v>144</v>
+      <c r="A43" s="15" t="s">
+        <v>93</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="C43" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="D43" s="17" t="s">
-        <v>121</v>
+        <v>94</v>
+      </c>
+      <c r="C43" s="10"/>
+      <c r="D43" s="11" t="s">
+        <v>182</v>
       </c>
       <c r="E43" s="12">
         <v>2022</v>
       </c>
       <c r="F43" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="G43" s="14" t="s">
-        <v>183</v>
+        <v>92</v>
+      </c>
+      <c r="G43" s="27" t="s">
+        <v>179</v>
       </c>
       <c r="H43" s="10"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A44" s="16" t="s">
-        <v>126</v>
-      </c>
-      <c r="B44" s="9" t="s">
-        <v>127</v>
+      <c r="A44" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="B44" s="21" t="s">
+        <v>83</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="D44" s="17" t="s">
-        <v>121</v>
-      </c>
-      <c r="E44" s="12">
-        <v>2020</v>
-      </c>
-      <c r="F44" s="13" t="s">
-        <v>122</v>
+        <v>84</v>
+      </c>
+      <c r="D44" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="E44" s="22">
+        <v>2022</v>
+      </c>
+      <c r="F44" s="23" t="s">
+        <v>28</v>
       </c>
       <c r="G44" s="27" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="H44" s="10"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="16" t="s">
-        <v>129</v>
+        <v>70</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="C45" s="10"/>
-      <c r="D45" s="17" t="s">
-        <v>121</v>
+        <v>71</v>
+      </c>
+      <c r="C45" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D45" s="11" t="s">
+        <v>73</v>
       </c>
       <c r="E45" s="12">
         <v>2022</v>
       </c>
       <c r="F45" s="13" t="s">
-        <v>122</v>
+        <v>28</v>
       </c>
       <c r="G45" s="27" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="H45" s="10"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="B46" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="C46" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="D46" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="E46" s="12">
+        <v>2022</v>
+      </c>
+      <c r="F46" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="G46" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="H46" s="10"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A47" s="16" t="s">
         <v>136</v>
       </c>
-      <c r="B46" s="9" t="s">
+      <c r="B47" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="C46" s="10"/>
-      <c r="D46" s="17" t="s">
-        <v>121</v>
-      </c>
-      <c r="E46" s="12">
-        <v>2020</v>
-      </c>
-      <c r="F46" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="G46" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="H46" s="10"/>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A47" s="20" t="s">
-        <v>171</v>
-      </c>
-      <c r="B47" s="21" t="s">
-        <v>172</v>
-      </c>
       <c r="C47" s="10" t="s">
-        <v>173</v>
+        <v>138</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>121</v>
-      </c>
-      <c r="E47" s="12" t="s">
-        <v>22</v>
+        <v>119</v>
+      </c>
+      <c r="E47" s="12">
+        <v>2022</v>
       </c>
       <c r="F47" s="13" t="s">
-        <v>174</v>
-      </c>
-      <c r="G47" s="27" t="s">
-        <v>184</v>
+        <v>120</v>
+      </c>
+      <c r="G47" s="14" t="s">
+        <v>178</v>
       </c>
       <c r="H47" s="10"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="16" t="s">
-        <v>175</v>
+        <v>142</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>176</v>
+        <v>143</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>177</v>
+        <v>144</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E48" s="12">
-        <v>2019</v>
+        <v>2022</v>
       </c>
       <c r="F48" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="G48" s="14" t="s">
         <v>178</v>
-      </c>
-      <c r="G48" s="27" t="s">
-        <v>184</v>
       </c>
       <c r="H48" s="10"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="16" t="s">
-        <v>179</v>
+        <v>127</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>180</v>
-      </c>
-      <c r="C49" s="10" t="s">
-        <v>181</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="C49" s="10"/>
       <c r="D49" s="17" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E49" s="12">
-        <v>2019</v>
+        <v>2022</v>
       </c>
       <c r="F49" s="13" t="s">
-        <v>182</v>
+        <v>120</v>
       </c>
       <c r="G49" s="27" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="H49" s="10"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="16" t="s">
-        <v>141</v>
+        <v>111</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="C50" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="D50" s="17" t="s">
-        <v>121</v>
+        <v>112</v>
+      </c>
+      <c r="C50" s="10"/>
+      <c r="D50" s="11" t="s">
+        <v>184</v>
       </c>
       <c r="E50" s="12">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="F50" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="G50" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G50" s="27" t="s">
+        <v>179</v>
+      </c>
+      <c r="H50" s="10"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A51" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="B51" s="21" t="s">
+        <v>169</v>
+      </c>
+      <c r="C51" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="D51" s="17" t="s">
         <v>185</v>
       </c>
-      <c r="H50" s="10"/>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A51" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="B51" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="C51" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="D51" s="17" t="s">
-        <v>71</v>
-      </c>
       <c r="E51" s="12">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="F51" s="13" t="s">
-        <v>30</v>
+        <v>171</v>
       </c>
       <c r="G51" s="27" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="H51" s="10"/>
     </row>
@@ -2285,138 +2283,138 @@
         <v>20</v>
       </c>
       <c r="D52" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="E52" s="12">
+        <v>2019</v>
+      </c>
+      <c r="F52" s="13" t="s">
         <v>21</v>
-      </c>
-      <c r="E52" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="F52" s="13" t="s">
-        <v>23</v>
       </c>
       <c r="G52" s="14"/>
       <c r="H52" s="10"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" s="16" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D53" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="E53" s="12" t="s">
-        <v>22</v>
+        <v>187</v>
+      </c>
+      <c r="E53" s="12">
+        <v>2019</v>
       </c>
       <c r="F53" s="13" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="G53" s="14" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="H53" s="10"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" s="16" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D54" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="E54" s="12" t="s">
-        <v>22</v>
+        <v>187</v>
+      </c>
+      <c r="E54" s="12">
+        <v>2019</v>
       </c>
       <c r="F54" s="13" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="G54" s="14" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="H54" s="10"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" s="15" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D55" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="E55" s="12" t="s">
-        <v>22</v>
+        <v>187</v>
+      </c>
+      <c r="E55" s="12">
+        <v>2019</v>
       </c>
       <c r="F55" s="13" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="G55" s="14" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="H55" s="10"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="B56" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="C56" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="B56" s="9" t="s">
+      <c r="D56" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="E56" s="12">
+        <v>2019</v>
+      </c>
+      <c r="F56" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="C56" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="D56" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="E56" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="F56" s="13" t="s">
-        <v>151</v>
-      </c>
       <c r="G56" s="27" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="H56" s="10"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" s="16" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C57" s="10"/>
       <c r="D57" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="E57" s="12" t="s">
-        <v>22</v>
+        <v>187</v>
+      </c>
+      <c r="E57" s="12">
+        <v>2019</v>
       </c>
       <c r="F57" s="13" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="G57" s="27" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="H57" s="10"/>
     </row>
   </sheetData>
-  <sortState ref="A2:H57">
-    <sortCondition ref="D8"/>
+  <sortState ref="A2:H58">
+    <sortCondition ref="E2"/>
   </sortState>
   <conditionalFormatting sqref="F54:F57 F1:F52">
     <cfRule type="notContainsBlanks" dxfId="1" priority="2">

--- a/_data/r.xlsx
+++ b/_data/r.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/SamuelDNinja/Desktop/ccup/ccup.github.io/_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B920B86C-4BC5-BF4E-AC27-E4DA25C87CE8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4CDDD17-FF87-3C45-BFB1-DAD89B23C0BF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="880" yWindow="1460" windowWidth="24640" windowHeight="14000" xr2:uid="{0C80B90B-66E9-1748-BD65-833EC8123034}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="189">
   <si>
     <t>Lastname</t>
   </si>
@@ -589,6 +589,9 @@
   </si>
   <si>
     <t>M.Eng. Systems Engineering</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Haitian (Linda) </t>
   </si>
 </sst>
 </file>
@@ -1063,10 +1066,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB2B4B30-7D45-0B4F-B741-D7D0B710D0DD}">
-  <dimension ref="A1:H57"/>
+  <dimension ref="A1:H58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="F52" sqref="F52"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G58" sqref="G58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2412,11 +2415,28 @@
       </c>
       <c r="H57" s="10"/>
     </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A58" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="B58" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="D58" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E58" s="12">
+        <v>2020</v>
+      </c>
+      <c r="F58" s="13" t="s">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:H58">
     <sortCondition ref="E2"/>
   </sortState>
-  <conditionalFormatting sqref="F54:F57 F1:F52">
+  <conditionalFormatting sqref="F1:F52 F54:F58">
     <cfRule type="notContainsBlanks" dxfId="1" priority="2">
       <formula>LEN(TRIM(F1))&gt;0</formula>
     </cfRule>

--- a/_data/r.xlsx
+++ b/_data/r.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/SamuelDNinja/Desktop/ccup/ccup.github.io/_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4CDDD17-FF87-3C45-BFB1-DAD89B23C0BF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D66A1EC7-3EF7-4943-94C1-D6C49583A6BD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="880" yWindow="1460" windowWidth="24640" windowHeight="14000" xr2:uid="{0C80B90B-66E9-1748-BD65-833EC8123034}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="188">
   <si>
     <t>Lastname</t>
   </si>
@@ -348,9 +348,6 @@
     <t>Agarwal</t>
   </si>
   <si>
-    <t>Rohan.JPG</t>
-  </si>
-  <si>
     <t>Stefen</t>
   </si>
   <si>
@@ -426,9 +423,6 @@
     <t>Depei</t>
   </si>
   <si>
-    <t>Depei.JPG</t>
-  </si>
-  <si>
     <t>Dylan</t>
   </si>
   <si>
@@ -450,9 +444,6 @@
     <t>Zeller MacLean</t>
   </si>
   <si>
-    <t>Natalia.JPG</t>
-  </si>
-  <si>
     <t>Shubham</t>
   </si>
   <si>
@@ -486,9 +477,6 @@
     <t>Li</t>
   </si>
   <si>
-    <t>Richard.JPG</t>
-  </si>
-  <si>
     <t>Shiang-Wan</t>
   </si>
   <si>
@@ -592,6 +580,15 @@
   </si>
   <si>
     <t xml:space="preserve">Haitian (Linda) </t>
+  </si>
+  <si>
+    <t>placeholder.png</t>
+  </si>
+  <si>
+    <t>Wu</t>
+  </si>
+  <si>
+    <t>Charu.jpg</t>
   </si>
 </sst>
 </file>
@@ -1068,8 +1065,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB2B4B30-7D45-0B4F-B741-D7D0B710D0DD}">
   <dimension ref="A1:H58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G58" sqref="G58"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1080,7 +1077,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1115,7 +1112,7 @@
         <v>24</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="E2" s="12">
         <v>2019</v>
@@ -1128,49 +1125,49 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="16" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E3" s="12">
         <v>2019</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="G3" s="27" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="H3" s="10"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="16" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E4" s="12">
         <v>2019</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G4" s="27" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="H4" s="10"/>
     </row>
@@ -1194,7 +1191,7 @@
         <v>28</v>
       </c>
       <c r="G5" s="27" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="H5" s="10"/>
     </row>
@@ -1218,19 +1215,19 @@
         <v>28</v>
       </c>
       <c r="G6" s="27" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="H6" s="10"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="20" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D7" s="14" t="s">
         <v>27</v>
@@ -1239,80 +1236,82 @@
         <v>2020</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="G7" s="27" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="H7" s="10"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="16" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>80</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="E8" s="12">
         <v>2020</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="G8" s="27" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="H8" s="10"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="B9" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="C9" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="C9" s="10" t="s">
-        <v>126</v>
-      </c>
       <c r="D9" s="17" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E9" s="12">
         <v>2020</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G9" s="27" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="H9" s="10"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="16" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="C10" s="10"/>
+        <v>133</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>185</v>
+      </c>
       <c r="D10" s="17" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E10" s="12">
         <v>2020</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G10" s="27" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="H10" s="10"/>
     </row>
@@ -1323,7 +1322,9 @@
       <c r="B11" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="10"/>
+      <c r="C11" s="10" t="s">
+        <v>185</v>
+      </c>
       <c r="D11" s="17" t="s">
         <v>27</v>
       </c>
@@ -1334,7 +1335,7 @@
         <v>28</v>
       </c>
       <c r="G11" s="14" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="H11" s="10"/>
     </row>
@@ -1358,7 +1359,7 @@
         <v>28</v>
       </c>
       <c r="G12" s="27" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="H12" s="10"/>
     </row>
@@ -1382,7 +1383,7 @@
         <v>28</v>
       </c>
       <c r="G13" s="14" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="H13" s="10"/>
     </row>
@@ -1406,7 +1407,7 @@
         <v>28</v>
       </c>
       <c r="G14" s="14" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="H14" s="10"/>
     </row>
@@ -1430,7 +1431,7 @@
         <v>28</v>
       </c>
       <c r="G15" s="14" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="H15" s="10"/>
     </row>
@@ -1454,7 +1455,7 @@
         <v>28</v>
       </c>
       <c r="G16" s="14" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="H16" s="10"/>
     </row>
@@ -1475,10 +1476,10 @@
         <v>2021</v>
       </c>
       <c r="F17" s="13" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="G17" s="14" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="H17" s="10"/>
     </row>
@@ -1502,7 +1503,7 @@
         <v>28</v>
       </c>
       <c r="G18" s="14" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="H18" s="10"/>
     </row>
@@ -1511,13 +1512,13 @@
         <v>97</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>51</v>
+        <v>186</v>
       </c>
       <c r="C19" s="10" t="s">
         <v>98</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="E19" s="12">
         <v>2021</v>
@@ -1526,7 +1527,7 @@
         <v>92</v>
       </c>
       <c r="G19" s="14" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="H19" s="10"/>
     </row>
@@ -1541,7 +1542,7 @@
         <v>104</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="E20" s="12">
         <v>2021</v>
@@ -1550,7 +1551,7 @@
         <v>92</v>
       </c>
       <c r="G20" s="14" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="H20" s="10"/>
     </row>
@@ -1562,19 +1563,19 @@
         <v>106</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>107</v>
+        <v>185</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="E21" s="12">
         <v>2021</v>
       </c>
       <c r="F21" s="13" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="G21" s="27" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="H21" s="10"/>
     </row>
@@ -1589,7 +1590,7 @@
         <v>43</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="E22" s="12">
         <v>2021</v>
@@ -1598,7 +1599,7 @@
         <v>28</v>
       </c>
       <c r="G22" s="27" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="H22" s="10"/>
     </row>
@@ -1622,7 +1623,7 @@
         <v>28</v>
       </c>
       <c r="G23" s="14" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="H23" s="10"/>
     </row>
@@ -1633,7 +1634,9 @@
       <c r="B24" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C24" s="10"/>
+      <c r="C24" s="10" t="s">
+        <v>185</v>
+      </c>
       <c r="D24" s="11" t="s">
         <v>14</v>
       </c>
@@ -1648,97 +1651,97 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="B25" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="B25" s="9" t="s">
+      <c r="C25" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="C25" s="10" t="s">
+      <c r="D25" s="17" t="s">
         <v>118</v>
-      </c>
-      <c r="D25" s="17" t="s">
-        <v>119</v>
       </c>
       <c r="E25" s="12">
         <v>2021</v>
       </c>
       <c r="F25" s="13" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G25" s="14" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="H25" s="10"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="B26" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="B26" s="19" t="s">
+      <c r="C26" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="C26" s="10" t="s">
-        <v>123</v>
-      </c>
       <c r="D26" s="17" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E26" s="12">
         <v>2021</v>
       </c>
       <c r="F26" s="13" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G26" s="14" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="H26" s="10"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="24" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B27" s="25" t="s">
         <v>51</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>133</v>
+        <v>185</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E27" s="22">
         <v>2021</v>
       </c>
       <c r="F27" s="26" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G27" s="14" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="H27" s="10"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="16" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>141</v>
+        <v>185</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E28" s="12">
         <v>2021</v>
       </c>
       <c r="F28" s="13" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="H28" s="10"/>
     </row>
@@ -1762,7 +1765,7 @@
         <v>28</v>
       </c>
       <c r="G29" s="27" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="H29" s="10"/>
     </row>
@@ -1829,7 +1832,7 @@
         <v>28</v>
       </c>
       <c r="G32" s="27" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="H32" s="10"/>
     </row>
@@ -1853,7 +1856,7 @@
         <v>28</v>
       </c>
       <c r="G33" s="27" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="H33" s="10"/>
     </row>
@@ -1877,7 +1880,7 @@
         <v>28</v>
       </c>
       <c r="G34" s="27" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="H34" s="10"/>
     </row>
@@ -1888,7 +1891,9 @@
       <c r="B35" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="C35" s="10"/>
+      <c r="C35" s="10" t="s">
+        <v>185</v>
+      </c>
       <c r="D35" s="17" t="s">
         <v>27</v>
       </c>
@@ -1899,7 +1904,7 @@
         <v>28</v>
       </c>
       <c r="G35" s="27" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="H35" s="10"/>
     </row>
@@ -1923,7 +1928,7 @@
         <v>28</v>
       </c>
       <c r="G36" s="27" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="H36" s="10"/>
     </row>
@@ -1947,7 +1952,7 @@
         <v>92</v>
       </c>
       <c r="G37" s="14" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="H37" s="10"/>
     </row>
@@ -1958,7 +1963,9 @@
       <c r="B38" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="C38" s="10"/>
+      <c r="C38" s="10" t="s">
+        <v>185</v>
+      </c>
       <c r="D38" s="17" t="s">
         <v>27</v>
       </c>
@@ -1969,7 +1976,7 @@
         <v>92</v>
       </c>
       <c r="G38" s="27" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="H38" s="10"/>
     </row>
@@ -1980,7 +1987,9 @@
       <c r="B39" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C39" s="10"/>
+      <c r="C39" s="10" t="s">
+        <v>185</v>
+      </c>
       <c r="D39" s="11" t="s">
         <v>17</v>
       </c>
@@ -1995,16 +2004,16 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="B40" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="B40" s="9" t="s">
+      <c r="C40" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="C40" s="10" t="s">
-        <v>110</v>
-      </c>
       <c r="D40" s="11" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="E40" s="12">
         <v>2022</v>
@@ -2013,22 +2022,22 @@
         <v>92</v>
       </c>
       <c r="G40" s="14" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="H40" s="10"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="B41" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="B41" s="9" t="s">
+      <c r="C41" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="C41" s="10" t="s">
-        <v>115</v>
-      </c>
       <c r="D41" s="11" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="E41" s="12">
         <v>2022</v>
@@ -2037,7 +2046,7 @@
         <v>92</v>
       </c>
       <c r="G41" s="14" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="H41" s="10"/>
     </row>
@@ -2052,7 +2061,7 @@
         <v>91</v>
       </c>
       <c r="D42" s="11" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="E42" s="12">
         <v>2022</v>
@@ -2061,7 +2070,7 @@
         <v>92</v>
       </c>
       <c r="G42" s="27" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="H42" s="10"/>
     </row>
@@ -2072,9 +2081,11 @@
       <c r="B43" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="C43" s="10"/>
+      <c r="C43" s="10" t="s">
+        <v>185</v>
+      </c>
       <c r="D43" s="11" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="E43" s="12">
         <v>2022</v>
@@ -2083,7 +2094,7 @@
         <v>92</v>
       </c>
       <c r="G43" s="27" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="H43" s="10"/>
     </row>
@@ -2107,7 +2118,7 @@
         <v>28</v>
       </c>
       <c r="G44" s="27" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="H44" s="10"/>
     </row>
@@ -2131,114 +2142,118 @@
         <v>28</v>
       </c>
       <c r="G45" s="27" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="H45" s="10"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="B46" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="B46" s="9" t="s">
+      <c r="C46" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="C46" s="10" t="s">
-        <v>131</v>
-      </c>
       <c r="D46" s="17" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E46" s="12">
         <v>2022</v>
       </c>
       <c r="F46" s="13" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G46" s="14" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="H46" s="10"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="B47" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="C47" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="B47" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="C47" s="10" t="s">
-        <v>138</v>
-      </c>
       <c r="D47" s="17" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E47" s="12">
         <v>2022</v>
       </c>
       <c r="F47" s="13" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G47" s="14" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="H47" s="10"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="16" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E48" s="12">
         <v>2022</v>
       </c>
       <c r="F48" s="13" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G48" s="14" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="H48" s="10"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="B49" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="B49" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="C49" s="10"/>
+      <c r="C49" s="10" t="s">
+        <v>187</v>
+      </c>
       <c r="D49" s="17" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E49" s="12">
         <v>2022</v>
       </c>
       <c r="F49" s="13" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G49" s="27" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="H49" s="10"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="B50" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="B50" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="C50" s="10"/>
+      <c r="C50" s="10" t="s">
+        <v>185</v>
+      </c>
       <c r="D50" s="11" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="E50" s="12">
         <v>2019</v>
@@ -2247,31 +2262,31 @@
         <v>92</v>
       </c>
       <c r="G50" s="27" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="H50" s="10"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" s="20" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B51" s="21" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="E51" s="12">
         <v>2019</v>
       </c>
       <c r="F51" s="13" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="G51" s="27" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="H51" s="10"/>
     </row>
@@ -2286,7 +2301,7 @@
         <v>20</v>
       </c>
       <c r="D52" s="11" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="E52" s="12">
         <v>2019</v>
@@ -2299,128 +2314,133 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" s="16" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>153</v>
+        <v>185</v>
       </c>
       <c r="D53" s="11" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="E53" s="12">
         <v>2019</v>
       </c>
       <c r="F53" s="13" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G53" s="14" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="H53" s="10"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" s="16" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D54" s="11" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="E54" s="12">
         <v>2019</v>
       </c>
       <c r="F54" s="13" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G54" s="14" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="H54" s="10"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" s="15" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D55" s="11" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="E55" s="12">
         <v>2019</v>
       </c>
       <c r="F55" s="13" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G55" s="14" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="H55" s="10"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" s="15" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D56" s="11" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="E56" s="12">
         <v>2019</v>
       </c>
       <c r="F56" s="13" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G56" s="27" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="H56" s="10"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" s="16" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="C57" s="10"/>
+        <v>147</v>
+      </c>
+      <c r="C57" s="10" t="s">
+        <v>185</v>
+      </c>
       <c r="D57" s="11" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="E57" s="12">
         <v>2019</v>
       </c>
       <c r="F57" s="13" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G57" s="27" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="H57" s="10"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="16" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B58" s="9" t="s">
         <v>80</v>
+      </c>
+      <c r="C58" s="10" t="s">
+        <v>185</v>
       </c>
       <c r="D58" s="11" t="s">
         <v>27</v>

--- a/_data/r.xlsx
+++ b/_data/r.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10412"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/SamuelDNinja/Desktop/ccup/ccup.github.io/_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D66A1EC7-3EF7-4943-94C1-D6C49583A6BD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAF1365F-9BAA-4045-8938-94F87132B162}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="880" yWindow="1460" windowWidth="24640" windowHeight="14000" xr2:uid="{0C80B90B-66E9-1748-BD65-833EC8123034}"/>
   </bookViews>
@@ -270,9 +270,6 @@
     <t>Lu</t>
   </si>
   <si>
-    <t>Zhen.JPG</t>
-  </si>
-  <si>
     <t>Junlin</t>
   </si>
   <si>
@@ -589,6 +586,9 @@
   </si>
   <si>
     <t>Charu.jpg</t>
+  </si>
+  <si>
+    <t>Zhen.jpg</t>
   </si>
 </sst>
 </file>
@@ -1065,8 +1065,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB2B4B30-7D45-0B4F-B741-D7D0B710D0DD}">
   <dimension ref="A1:H58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="D51" sqref="D51"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1077,7 +1077,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1112,7 +1112,7 @@
         <v>24</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E2" s="12">
         <v>2019</v>
@@ -1125,49 +1125,49 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="16" t="s">
+        <v>167</v>
+      </c>
+      <c r="B3" s="9" t="s">
         <v>168</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="C3" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="C3" s="10" t="s">
-        <v>170</v>
-      </c>
       <c r="D3" s="17" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E3" s="12">
         <v>2019</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G3" s="27" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H3" s="10"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="B4" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="C4" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="C4" s="10" t="s">
-        <v>173</v>
-      </c>
       <c r="D4" s="17" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E4" s="12">
         <v>2019</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G4" s="27" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H4" s="10"/>
     </row>
@@ -1191,7 +1191,7 @@
         <v>28</v>
       </c>
       <c r="G5" s="27" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H5" s="10"/>
     </row>
@@ -1215,19 +1215,19 @@
         <v>28</v>
       </c>
       <c r="G6" s="27" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H6" s="10"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="B7" s="21" t="s">
         <v>156</v>
       </c>
-      <c r="B7" s="21" t="s">
+      <c r="C7" s="10" t="s">
         <v>157</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>158</v>
       </c>
       <c r="D7" s="14" t="s">
         <v>27</v>
@@ -1236,82 +1236,82 @@
         <v>2020</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G7" s="27" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H7" s="10"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="16" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>80</v>
       </c>
       <c r="C8" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="D8" s="11" t="s">
         <v>161</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>162</v>
       </c>
       <c r="E8" s="12">
         <v>2020</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G8" s="27" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H8" s="10"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="B9" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="C9" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="C9" s="10" t="s">
-        <v>125</v>
-      </c>
       <c r="D9" s="17" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E9" s="12">
         <v>2020</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G9" s="27" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H9" s="10"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="B10" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="B10" s="9" t="s">
-        <v>133</v>
-      </c>
       <c r="C10" s="10" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E10" s="12">
         <v>2020</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G10" s="27" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H10" s="10"/>
     </row>
@@ -1323,7 +1323,7 @@
         <v>26</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D11" s="17" t="s">
         <v>27</v>
@@ -1335,7 +1335,7 @@
         <v>28</v>
       </c>
       <c r="G11" s="14" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H11" s="10"/>
     </row>
@@ -1359,7 +1359,7 @@
         <v>28</v>
       </c>
       <c r="G12" s="27" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H12" s="10"/>
     </row>
@@ -1383,7 +1383,7 @@
         <v>28</v>
       </c>
       <c r="G13" s="14" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H13" s="10"/>
     </row>
@@ -1407,7 +1407,7 @@
         <v>28</v>
       </c>
       <c r="G14" s="14" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H14" s="10"/>
     </row>
@@ -1431,7 +1431,7 @@
         <v>28</v>
       </c>
       <c r="G15" s="14" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H15" s="10"/>
     </row>
@@ -1455,7 +1455,7 @@
         <v>28</v>
       </c>
       <c r="G16" s="14" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H16" s="10"/>
     </row>
@@ -1476,22 +1476,22 @@
         <v>2021</v>
       </c>
       <c r="F17" s="13" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G17" s="14" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H17" s="10"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="B18" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="B18" s="21" t="s">
+      <c r="C18" s="10" t="s">
         <v>87</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>88</v>
       </c>
       <c r="D18" s="14" t="s">
         <v>27</v>
@@ -1503,79 +1503,79 @@
         <v>28</v>
       </c>
       <c r="G18" s="14" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H18" s="10"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="C19" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="B19" s="9" t="s">
-        <v>186</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>98</v>
-      </c>
       <c r="D19" s="11" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E19" s="12">
         <v>2021</v>
       </c>
       <c r="F19" s="13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G19" s="14" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H19" s="10"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="B20" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="C20" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="C20" s="10" t="s">
-        <v>104</v>
-      </c>
       <c r="D20" s="11" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E20" s="12">
         <v>2021</v>
       </c>
       <c r="F20" s="13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G20" s="14" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H20" s="10"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="B21" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="B21" s="9" t="s">
-        <v>106</v>
-      </c>
       <c r="C21" s="10" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E21" s="12">
         <v>2021</v>
       </c>
       <c r="F21" s="13" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G21" s="27" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H21" s="10"/>
     </row>
@@ -1590,7 +1590,7 @@
         <v>43</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E22" s="12">
         <v>2021</v>
@@ -1599,7 +1599,7 @@
         <v>28</v>
       </c>
       <c r="G22" s="27" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H22" s="10"/>
     </row>
@@ -1623,7 +1623,7 @@
         <v>28</v>
       </c>
       <c r="G23" s="14" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H23" s="10"/>
     </row>
@@ -1635,7 +1635,7 @@
         <v>13</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D24" s="11" t="s">
         <v>14</v>
@@ -1651,97 +1651,97 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="B25" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="B25" s="9" t="s">
+      <c r="C25" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="C25" s="10" t="s">
+      <c r="D25" s="17" t="s">
         <v>117</v>
-      </c>
-      <c r="D25" s="17" t="s">
-        <v>118</v>
       </c>
       <c r="E25" s="12">
         <v>2021</v>
       </c>
       <c r="F25" s="13" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G25" s="14" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H25" s="10"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="B26" s="19" t="s">
         <v>120</v>
       </c>
-      <c r="B26" s="19" t="s">
+      <c r="C26" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="C26" s="10" t="s">
-        <v>122</v>
-      </c>
       <c r="D26" s="17" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E26" s="12">
         <v>2021</v>
       </c>
       <c r="F26" s="13" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G26" s="14" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H26" s="10"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="24" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B27" s="25" t="s">
         <v>51</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E27" s="22">
         <v>2021</v>
       </c>
       <c r="F27" s="26" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G27" s="14" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H27" s="10"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="B28" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="B28" s="9" t="s">
-        <v>138</v>
-      </c>
       <c r="C28" s="10" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E28" s="12">
         <v>2021</v>
       </c>
       <c r="F28" s="13" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H28" s="10"/>
     </row>
@@ -1765,7 +1765,7 @@
         <v>28</v>
       </c>
       <c r="G29" s="27" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H29" s="10"/>
     </row>
@@ -1832,7 +1832,7 @@
         <v>28</v>
       </c>
       <c r="G32" s="27" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H32" s="10"/>
     </row>
@@ -1856,7 +1856,7 @@
         <v>28</v>
       </c>
       <c r="G33" s="27" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H33" s="10"/>
     </row>
@@ -1880,7 +1880,7 @@
         <v>28</v>
       </c>
       <c r="G34" s="27" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H34" s="10"/>
     </row>
@@ -1892,7 +1892,7 @@
         <v>78</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D35" s="17" t="s">
         <v>27</v>
@@ -1904,7 +1904,7 @@
         <v>28</v>
       </c>
       <c r="G35" s="27" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H35" s="10"/>
     </row>
@@ -1916,7 +1916,7 @@
         <v>80</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>81</v>
+        <v>187</v>
       </c>
       <c r="D36" s="17" t="s">
         <v>27</v>
@@ -1928,19 +1928,19 @@
         <v>28</v>
       </c>
       <c r="G36" s="27" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H36" s="10"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="B37" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="B37" s="9" t="s">
+      <c r="C37" s="10" t="s">
         <v>100</v>
-      </c>
-      <c r="C37" s="10" t="s">
-        <v>101</v>
       </c>
       <c r="D37" s="17" t="s">
         <v>27</v>
@@ -1949,22 +1949,22 @@
         <v>2022</v>
       </c>
       <c r="F37" s="13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G37" s="14" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H37" s="10"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="B38" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="B38" s="9" t="s">
-        <v>96</v>
-      </c>
       <c r="C38" s="10" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D38" s="17" t="s">
         <v>27</v>
@@ -1973,10 +1973,10 @@
         <v>2022</v>
       </c>
       <c r="F38" s="13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G38" s="27" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H38" s="10"/>
     </row>
@@ -1988,7 +1988,7 @@
         <v>16</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D39" s="11" t="s">
         <v>17</v>
@@ -2004,112 +2004,112 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="B40" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="B40" s="9" t="s">
+      <c r="C40" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="C40" s="10" t="s">
-        <v>109</v>
-      </c>
       <c r="D40" s="11" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E40" s="12">
         <v>2022</v>
       </c>
       <c r="F40" s="13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G40" s="14" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H40" s="10"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="B41" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="B41" s="9" t="s">
+      <c r="C41" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="C41" s="10" t="s">
-        <v>114</v>
-      </c>
       <c r="D41" s="11" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E41" s="12">
         <v>2022</v>
       </c>
       <c r="F41" s="13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G41" s="14" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H41" s="10"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="B42" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="B42" s="9" t="s">
+      <c r="C42" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="C42" s="10" t="s">
-        <v>91</v>
-      </c>
       <c r="D42" s="11" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E42" s="12">
         <v>2022</v>
       </c>
       <c r="F42" s="13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G42" s="27" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H42" s="10"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="B43" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="B43" s="9" t="s">
-        <v>94</v>
-      </c>
       <c r="C43" s="10" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D43" s="11" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E43" s="12">
         <v>2022</v>
       </c>
       <c r="F43" s="13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G43" s="27" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H43" s="10"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="B44" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="B44" s="21" t="s">
+      <c r="C44" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="C44" s="10" t="s">
+      <c r="D44" s="14" t="s">
         <v>84</v>
-      </c>
-      <c r="D44" s="14" t="s">
-        <v>85</v>
       </c>
       <c r="E44" s="22">
         <v>2022</v>
@@ -2118,7 +2118,7 @@
         <v>28</v>
       </c>
       <c r="G44" s="27" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H44" s="10"/>
     </row>
@@ -2142,151 +2142,151 @@
         <v>28</v>
       </c>
       <c r="G45" s="27" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H45" s="10"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="B46" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="B46" s="9" t="s">
+      <c r="C46" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="C46" s="10" t="s">
-        <v>130</v>
-      </c>
       <c r="D46" s="17" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E46" s="12">
         <v>2022</v>
       </c>
       <c r="F46" s="13" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G46" s="14" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H46" s="10"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="B47" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="B47" s="9" t="s">
+      <c r="C47" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="C47" s="10" t="s">
-        <v>136</v>
-      </c>
       <c r="D47" s="17" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E47" s="12">
         <v>2022</v>
       </c>
       <c r="F47" s="13" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G47" s="14" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H47" s="10"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="B48" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="B48" s="9" t="s">
+      <c r="C48" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="C48" s="10" t="s">
-        <v>141</v>
-      </c>
       <c r="D48" s="17" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E48" s="12">
         <v>2022</v>
       </c>
       <c r="F48" s="13" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G48" s="14" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H48" s="10"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="B49" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="B49" s="9" t="s">
-        <v>127</v>
-      </c>
       <c r="C49" s="10" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E49" s="12">
         <v>2022</v>
       </c>
       <c r="F49" s="13" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G49" s="27" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H49" s="10"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="B50" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="B50" s="9" t="s">
-        <v>111</v>
-      </c>
       <c r="C50" s="10" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D50" s="11" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E50" s="12">
         <v>2019</v>
       </c>
       <c r="F50" s="13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G50" s="27" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H50" s="10"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" s="20" t="s">
+        <v>163</v>
+      </c>
+      <c r="B51" s="21" t="s">
         <v>164</v>
       </c>
-      <c r="B51" s="21" t="s">
+      <c r="C51" s="10" t="s">
         <v>165</v>
       </c>
-      <c r="C51" s="10" t="s">
-        <v>166</v>
-      </c>
       <c r="D51" s="17" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E51" s="12">
         <v>2019</v>
       </c>
       <c r="F51" s="13" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G51" s="27" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H51" s="10"/>
     </row>
@@ -2301,7 +2301,7 @@
         <v>20</v>
       </c>
       <c r="D52" s="11" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E52" s="12">
         <v>2019</v>
@@ -2314,133 +2314,133 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="B53" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="B53" s="9" t="s">
-        <v>149</v>
-      </c>
       <c r="C53" s="10" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D53" s="11" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E53" s="12">
         <v>2019</v>
       </c>
       <c r="F53" s="13" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G53" s="14" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H53" s="10"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="B54" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="B54" s="9" t="s">
+      <c r="C54" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="C54" s="10" t="s">
-        <v>152</v>
-      </c>
       <c r="D54" s="11" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E54" s="12">
         <v>2019</v>
       </c>
       <c r="F54" s="13" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G54" s="14" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H54" s="10"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="B55" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="B55" s="9" t="s">
+      <c r="C55" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="C55" s="10" t="s">
-        <v>155</v>
-      </c>
       <c r="D55" s="11" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E55" s="12">
         <v>2019</v>
       </c>
       <c r="F55" s="13" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G55" s="14" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H55" s="10"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="B56" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="B56" s="9" t="s">
+      <c r="C56" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="C56" s="10" t="s">
-        <v>144</v>
-      </c>
       <c r="D56" s="11" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E56" s="12">
         <v>2019</v>
       </c>
       <c r="F56" s="13" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G56" s="27" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H56" s="10"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="B57" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="B57" s="9" t="s">
-        <v>147</v>
-      </c>
       <c r="C57" s="10" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D57" s="11" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E57" s="12">
         <v>2019</v>
       </c>
       <c r="F57" s="13" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G57" s="27" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H57" s="10"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="16" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B58" s="9" t="s">
         <v>80</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D58" s="11" t="s">
         <v>27</v>

--- a/_data/r.xlsx
+++ b/_data/r.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/SamuelDNinja/Desktop/ccup/ccup.github.io/_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAF1365F-9BAA-4045-8938-94F87132B162}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C34BE81E-8C47-A846-AEC4-3D5DE7B50BE9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="880" yWindow="1460" windowWidth="24640" windowHeight="14000" xr2:uid="{0C80B90B-66E9-1748-BD65-833EC8123034}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="199">
   <si>
     <t>Lastname</t>
   </si>
@@ -589,6 +589,39 @@
   </si>
   <si>
     <t>Zhen.jpg</t>
+  </si>
+  <si>
+    <t>Linda.jpg</t>
+  </si>
+  <si>
+    <t>Natalia.jpg</t>
+  </si>
+  <si>
+    <t>Rohan.jpg</t>
+  </si>
+  <si>
+    <t>Grant.jpg</t>
+  </si>
+  <si>
+    <t>Depei.jpg</t>
+  </si>
+  <si>
+    <t>Dylan.jpg</t>
+  </si>
+  <si>
+    <t>Yanchen.jpg</t>
+  </si>
+  <si>
+    <t>Yuanxin.jpg</t>
+  </si>
+  <si>
+    <t>Bryce.jpg</t>
+  </si>
+  <si>
+    <t>Jackie.jpg</t>
+  </si>
+  <si>
+    <t>Samuel.jpg</t>
   </si>
 </sst>
 </file>
@@ -1065,8 +1098,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB2B4B30-7D45-0B4F-B741-D7D0B710D0DD}">
   <dimension ref="A1:H58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1299,7 +1332,7 @@
         <v>132</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="D10" s="17" t="s">
         <v>117</v>
@@ -1563,7 +1596,7 @@
         <v>105</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="D21" s="11" t="s">
         <v>177</v>
@@ -1635,7 +1668,7 @@
         <v>13</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="D24" s="11" t="s">
         <v>14</v>
@@ -1705,7 +1738,7 @@
         <v>51</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="D27" s="17" t="s">
         <v>117</v>
@@ -1729,7 +1762,7 @@
         <v>137</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="D28" s="17" t="s">
         <v>117</v>
@@ -1810,6 +1843,9 @@
       <c r="F31" s="13" t="s">
         <v>28</v>
       </c>
+      <c r="G31" s="27" t="s">
+        <v>174</v>
+      </c>
       <c r="H31" s="10"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
@@ -1892,7 +1928,7 @@
         <v>78</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="D35" s="17" t="s">
         <v>27</v>
@@ -1964,7 +2000,7 @@
         <v>95</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>184</v>
+        <v>197</v>
       </c>
       <c r="D38" s="17" t="s">
         <v>27</v>
@@ -1988,7 +2024,7 @@
         <v>16</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>184</v>
+        <v>198</v>
       </c>
       <c r="D39" s="11" t="s">
         <v>17</v>
@@ -2082,7 +2118,7 @@
         <v>93</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="D43" s="11" t="s">
         <v>177</v>
@@ -2250,7 +2286,7 @@
         <v>110</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="D50" s="11" t="s">
         <v>179</v>
@@ -2440,7 +2476,7 @@
         <v>80</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="D58" s="11" t="s">
         <v>27</v>
@@ -2450,6 +2486,9 @@
       </c>
       <c r="F58" s="13" t="s">
         <v>28</v>
+      </c>
+      <c r="G58" s="27" t="s">
+        <v>174</v>
       </c>
     </row>
   </sheetData>

--- a/_data/r.xlsx
+++ b/_data/r.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/SamuelDNinja/Desktop/ccup/ccup.github.io/_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C34BE81E-8C47-A846-AEC4-3D5DE7B50BE9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87D03B1E-8CE1-164B-94C8-246C994DA0FB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="880" yWindow="1460" windowWidth="24640" windowHeight="14000" xr2:uid="{0C80B90B-66E9-1748-BD65-833EC8123034}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="200">
   <si>
     <t>Lastname</t>
   </si>
@@ -622,6 +622,9 @@
   </si>
   <si>
     <t>Samuel.jpg</t>
+  </si>
+  <si>
+    <t>Andy.jpg</t>
   </si>
 </sst>
 </file>
@@ -1098,8 +1101,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB2B4B30-7D45-0B4F-B741-D7D0B710D0DD}">
   <dimension ref="A1:H58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1356,7 +1359,7 @@
         <v>26</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>184</v>
+        <v>199</v>
       </c>
       <c r="D11" s="17" t="s">
         <v>27</v>

--- a/_data/r.xlsx
+++ b/_data/r.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/SamuelDNinja/Desktop/ccup/ccup.github.io/_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87D03B1E-8CE1-164B-94C8-246C994DA0FB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C71F16F-AFD9-1343-8CA3-86E4CF1DD57F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="880" yWindow="1460" windowWidth="24640" windowHeight="14000" xr2:uid="{0C80B90B-66E9-1748-BD65-833EC8123034}"/>
   </bookViews>
@@ -1102,7 +1102,7 @@
   <dimension ref="A1:H58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="F4" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1139,38 +1139,40 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>22</v>
+        <v>167</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>23</v>
+        <v>168</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>177</v>
+        <v>169</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>117</v>
       </c>
       <c r="E2" s="12">
         <v>2019</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="14"/>
+        <v>166</v>
+      </c>
+      <c r="G2" s="27" t="s">
+        <v>174</v>
+      </c>
       <c r="H2" s="10"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="16" t="s">
-        <v>167</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>168</v>
+      <c r="A3" s="20" t="s">
+        <v>163</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>164</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>117</v>
+        <v>180</v>
       </c>
       <c r="E3" s="12">
         <v>2019</v>
@@ -1185,46 +1187,46 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="16" t="s">
-        <v>170</v>
+        <v>104</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>171</v>
+        <v>105</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>172</v>
-      </c>
-      <c r="D4" s="17" t="s">
-        <v>117</v>
+        <v>190</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>177</v>
       </c>
       <c r="E4" s="12">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>118</v>
+        <v>162</v>
       </c>
       <c r="G4" s="27" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="H4" s="10"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="16" t="s">
-        <v>38</v>
+        <v>159</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="D5" s="17" t="s">
-        <v>27</v>
+        <v>160</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>161</v>
       </c>
       <c r="E5" s="12">
         <v>2020</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>28</v>
+        <v>162</v>
       </c>
       <c r="G5" s="27" t="s">
         <v>174</v>
@@ -1232,23 +1234,23 @@
       <c r="H5" s="10"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>75</v>
+      <c r="A6" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>156</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="D6" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="D6" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E6" s="22">
         <v>2020</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>28</v>
+        <v>158</v>
       </c>
       <c r="G6" s="27" t="s">
         <v>174</v>
@@ -1256,71 +1258,69 @@
       <c r="H6" s="10"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="20" t="s">
-        <v>155</v>
-      </c>
-      <c r="B7" s="21" t="s">
-        <v>156</v>
+      <c r="A7" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>61</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="D7" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="D7" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="22">
-        <v>2020</v>
+      <c r="E7" s="12">
+        <v>2021</v>
       </c>
       <c r="F7" s="13" t="s">
         <v>158</v>
       </c>
-      <c r="G7" s="27" t="s">
-        <v>174</v>
+      <c r="G7" s="14" t="s">
+        <v>173</v>
       </c>
       <c r="H7" s="10"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="16" t="s">
-        <v>159</v>
+      <c r="A8" s="15" t="s">
+        <v>18</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>80</v>
+        <v>19</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>161</v>
+        <v>181</v>
       </c>
       <c r="E8" s="12">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>162</v>
-      </c>
-      <c r="G8" s="27" t="s">
-        <v>174</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G8" s="14"/>
       <c r="H8" s="10"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="16" t="s">
-        <v>122</v>
+      <c r="A9" s="15" t="s">
+        <v>141</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>123</v>
+        <v>142</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="D9" s="17" t="s">
-        <v>117</v>
+        <v>143</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>182</v>
       </c>
       <c r="E9" s="12">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>118</v>
+        <v>144</v>
       </c>
       <c r="G9" s="27" t="s">
         <v>174</v>
@@ -1329,22 +1329,22 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="16" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="D10" s="17" t="s">
-        <v>117</v>
+        <v>184</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>182</v>
       </c>
       <c r="E10" s="12">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>118</v>
+        <v>144</v>
       </c>
       <c r="G10" s="27" t="s">
         <v>174</v>
@@ -1352,23 +1352,23 @@
       <c r="H10" s="10"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="15" t="s">
-        <v>25</v>
+      <c r="A11" s="16" t="s">
+        <v>147</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>26</v>
+        <v>148</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="D11" s="17" t="s">
-        <v>27</v>
+        <v>184</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>182</v>
       </c>
       <c r="E11" s="12">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>28</v>
+        <v>144</v>
       </c>
       <c r="G11" s="14" t="s">
         <v>173</v>
@@ -1377,46 +1377,46 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="16" t="s">
-        <v>29</v>
+        <v>149</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>30</v>
+        <v>150</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="D12" s="17" t="s">
-        <v>27</v>
+        <v>151</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>182</v>
       </c>
       <c r="E12" s="12">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="F12" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="G12" s="27" t="s">
-        <v>174</v>
+        <v>144</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>173</v>
       </c>
       <c r="H12" s="10"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="15" t="s">
-        <v>35</v>
+        <v>152</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>36</v>
+        <v>153</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D13" s="17" t="s">
-        <v>27</v>
+        <v>154</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>182</v>
       </c>
       <c r="E13" s="12">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>28</v>
+        <v>144</v>
       </c>
       <c r="G13" s="14" t="s">
         <v>173</v>
@@ -1424,23 +1424,23 @@
       <c r="H13" s="10"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="16" t="s">
-        <v>47</v>
+      <c r="A14" s="15" t="s">
+        <v>114</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>48</v>
+        <v>115</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>49</v>
+        <v>116</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>27</v>
+        <v>117</v>
       </c>
       <c r="E14" s="12">
         <v>2021</v>
       </c>
       <c r="F14" s="13" t="s">
-        <v>28</v>
+        <v>118</v>
       </c>
       <c r="G14" s="14" t="s">
         <v>173</v>
@@ -1448,23 +1448,23 @@
       <c r="H14" s="10"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>51</v>
+      <c r="A15" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>120</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>52</v>
+        <v>121</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>27</v>
+        <v>117</v>
       </c>
       <c r="E15" s="12">
         <v>2021</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>28</v>
+        <v>118</v>
       </c>
       <c r="G15" s="14" t="s">
         <v>173</v>
@@ -1473,70 +1473,70 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="16" t="s">
-        <v>53</v>
+        <v>122</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>19</v>
+        <v>123</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>54</v>
+        <v>124</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>27</v>
+        <v>117</v>
       </c>
       <c r="E16" s="12">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="F16" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="G16" s="14" t="s">
-        <v>173</v>
+        <v>118</v>
+      </c>
+      <c r="G16" s="27" t="s">
+        <v>174</v>
       </c>
       <c r="H16" s="10"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="16" t="s">
-        <v>60</v>
+        <v>125</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>61</v>
+        <v>126</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>62</v>
+        <v>186</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>27</v>
+        <v>117</v>
       </c>
       <c r="E17" s="12">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="F17" s="13" t="s">
-        <v>158</v>
-      </c>
-      <c r="G17" s="14" t="s">
-        <v>173</v>
+        <v>118</v>
+      </c>
+      <c r="G17" s="27" t="s">
+        <v>174</v>
       </c>
       <c r="H17" s="10"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="B18" s="21" t="s">
-        <v>86</v>
+      <c r="A18" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>128</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="D18" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="E18" s="22">
-        <v>2021</v>
-      </c>
-      <c r="F18" s="23" t="s">
-        <v>28</v>
+        <v>129</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="E18" s="12">
+        <v>2022</v>
+      </c>
+      <c r="F18" s="13" t="s">
+        <v>118</v>
       </c>
       <c r="G18" s="14" t="s">
         <v>173</v>
@@ -1544,23 +1544,23 @@
       <c r="H18" s="10"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>185</v>
+      <c r="A19" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="B19" s="25" t="s">
+        <v>51</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>177</v>
-      </c>
-      <c r="E19" s="12">
+        <v>192</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="E19" s="22">
         <v>2021</v>
       </c>
-      <c r="F19" s="13" t="s">
-        <v>91</v>
+      <c r="F19" s="26" t="s">
+        <v>118</v>
       </c>
       <c r="G19" s="14" t="s">
         <v>173</v>
@@ -1569,306 +1569,310 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="16" t="s">
-        <v>101</v>
+        <v>131</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>102</v>
+        <v>132</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="D20" s="11" t="s">
-        <v>177</v>
+        <v>193</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>117</v>
       </c>
       <c r="E20" s="12">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="F20" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="G20" s="14" t="s">
-        <v>173</v>
+        <v>118</v>
+      </c>
+      <c r="G20" s="27" t="s">
+        <v>174</v>
       </c>
       <c r="H20" s="10"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="16" t="s">
-        <v>104</v>
+        <v>170</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>105</v>
+        <v>171</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>190</v>
-      </c>
-      <c r="D21" s="11" t="s">
-        <v>177</v>
+        <v>172</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>117</v>
       </c>
       <c r="E21" s="12">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="F21" s="13" t="s">
-        <v>162</v>
+        <v>118</v>
       </c>
       <c r="G21" s="27" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H21" s="10"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="16" t="s">
-        <v>41</v>
+        <v>133</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>42</v>
+        <v>134</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="D22" s="11" t="s">
-        <v>178</v>
+        <v>135</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>117</v>
       </c>
       <c r="E22" s="12">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="F22" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="G22" s="27" t="s">
-        <v>174</v>
+        <v>118</v>
+      </c>
+      <c r="G22" s="14" t="s">
+        <v>173</v>
       </c>
       <c r="H22" s="10"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" s="15" t="s">
-        <v>55</v>
+      <c r="A23" s="16" t="s">
+        <v>136</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>19</v>
+        <v>137</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="D23" s="11" t="s">
-        <v>57</v>
+        <v>189</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>117</v>
       </c>
       <c r="E23" s="12">
         <v>2021</v>
       </c>
       <c r="F23" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="G23" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="H23" s="10"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="D24" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="E24" s="12">
+        <v>2022</v>
+      </c>
+      <c r="F24" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="G24" s="14" t="s">
         <v>173</v>
       </c>
-      <c r="H23" s="10"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>191</v>
-      </c>
-      <c r="D24" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="E24" s="12">
-        <v>2021</v>
-      </c>
-      <c r="F24" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G24" s="14"/>
       <c r="H24" s="10"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="15" t="s">
-        <v>114</v>
+        <v>88</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>115</v>
+        <v>89</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="D25" s="17" t="s">
-        <v>117</v>
+        <v>90</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>177</v>
       </c>
       <c r="E25" s="12">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="F25" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="G25" s="14" t="s">
-        <v>173</v>
+        <v>91</v>
+      </c>
+      <c r="G25" s="27" t="s">
+        <v>174</v>
       </c>
       <c r="H25" s="10"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" s="18" t="s">
-        <v>119</v>
-      </c>
-      <c r="B26" s="19" t="s">
-        <v>120</v>
+      <c r="A26" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>93</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="D26" s="17" t="s">
-        <v>117</v>
+        <v>196</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>177</v>
       </c>
       <c r="E26" s="12">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="F26" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="G26" s="14" t="s">
-        <v>173</v>
+        <v>91</v>
+      </c>
+      <c r="G26" s="27" t="s">
+        <v>174</v>
       </c>
       <c r="H26" s="10"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" s="24" t="s">
-        <v>130</v>
-      </c>
-      <c r="B27" s="25" t="s">
-        <v>51</v>
+      <c r="A27" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>95</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="E27" s="22">
-        <v>2021</v>
-      </c>
-      <c r="F27" s="26" t="s">
-        <v>118</v>
-      </c>
-      <c r="G27" s="14" t="s">
-        <v>173</v>
+        <v>27</v>
+      </c>
+      <c r="E27" s="12">
+        <v>2022</v>
+      </c>
+      <c r="F27" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="G27" s="27" t="s">
+        <v>174</v>
       </c>
       <c r="H27" s="10"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="16" t="s">
-        <v>136</v>
+        <v>96</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>137</v>
+        <v>185</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>189</v>
-      </c>
-      <c r="D28" s="17" t="s">
-        <v>117</v>
+        <v>97</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>177</v>
       </c>
       <c r="E28" s="12">
         <v>2021</v>
       </c>
       <c r="F28" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>175</v>
+        <v>91</v>
+      </c>
+      <c r="G28" s="14" t="s">
+        <v>173</v>
       </c>
       <c r="H28" s="10"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" s="16" t="s">
-        <v>66</v>
+      <c r="A29" s="15" t="s">
+        <v>98</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>67</v>
+        <v>99</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>68</v>
+        <v>100</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>69</v>
+        <v>27</v>
       </c>
       <c r="E29" s="12">
+        <v>2022</v>
+      </c>
+      <c r="F29" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="G29" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="H29" s="10"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="E30" s="12">
         <v>2021</v>
       </c>
-      <c r="F29" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="G29" s="27" t="s">
-        <v>174</v>
-      </c>
-      <c r="H29" s="10"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="B30" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D30" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E30" s="12">
-        <v>2022</v>
-      </c>
       <c r="F30" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G30" s="14"/>
+        <v>91</v>
+      </c>
+      <c r="G30" s="14" t="s">
+        <v>173</v>
+      </c>
       <c r="H30" s="10"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="16" t="s">
-        <v>32</v>
+        <v>106</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>33</v>
+        <v>107</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="D31" s="17" t="s">
-        <v>27</v>
+        <v>108</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>177</v>
       </c>
       <c r="E31" s="12">
         <v>2022</v>
       </c>
       <c r="F31" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="G31" s="27" t="s">
-        <v>174</v>
+        <v>91</v>
+      </c>
+      <c r="G31" s="14" t="s">
+        <v>173</v>
       </c>
       <c r="H31" s="10"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="16" t="s">
-        <v>44</v>
+        <v>109</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>45</v>
+        <v>110</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="D32" s="17" t="s">
-        <v>27</v>
+        <v>195</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>179</v>
       </c>
       <c r="E32" s="12">
-        <v>2022</v>
+        <v>2019</v>
       </c>
       <c r="F32" s="13" t="s">
-        <v>28</v>
+        <v>91</v>
       </c>
       <c r="G32" s="27" t="s">
         <v>174</v>
@@ -1877,67 +1881,67 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="16" t="s">
-        <v>58</v>
+        <v>111</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>36</v>
+        <v>112</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="D33" s="17" t="s">
-        <v>27</v>
+        <v>113</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>177</v>
       </c>
       <c r="E33" s="12">
         <v>2022</v>
       </c>
       <c r="F33" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="G33" s="27" t="s">
-        <v>174</v>
+        <v>91</v>
+      </c>
+      <c r="G33" s="14" t="s">
+        <v>173</v>
       </c>
       <c r="H33" s="10"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A34" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="B34" s="19" t="s">
-        <v>64</v>
+      <c r="A34" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>26</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>65</v>
+        <v>199</v>
       </c>
       <c r="D34" s="17" t="s">
         <v>27</v>
       </c>
       <c r="E34" s="12">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="F34" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="G34" s="27" t="s">
-        <v>174</v>
+      <c r="G34" s="14" t="s">
+        <v>173</v>
       </c>
       <c r="H34" s="10"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A35" s="15" t="s">
-        <v>77</v>
+      <c r="A35" s="16" t="s">
+        <v>29</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>78</v>
+        <v>30</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>194</v>
+        <v>31</v>
       </c>
       <c r="D35" s="17" t="s">
         <v>27</v>
       </c>
       <c r="E35" s="12">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="F35" s="13" t="s">
         <v>28</v>
@@ -1949,13 +1953,13 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="16" t="s">
-        <v>79</v>
+        <v>32</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>80</v>
+        <v>33</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>187</v>
+        <v>34</v>
       </c>
       <c r="D36" s="17" t="s">
         <v>27</v>
@@ -1973,22 +1977,22 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="15" t="s">
-        <v>98</v>
+        <v>35</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>99</v>
+        <v>36</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>100</v>
+        <v>37</v>
       </c>
       <c r="D37" s="17" t="s">
         <v>27</v>
       </c>
       <c r="E37" s="12">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="F37" s="13" t="s">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="G37" s="14" t="s">
         <v>173</v>
@@ -1997,22 +2001,22 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="16" t="s">
-        <v>94</v>
+        <v>38</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>95</v>
+        <v>39</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>197</v>
+        <v>40</v>
       </c>
       <c r="D38" s="17" t="s">
         <v>27</v>
       </c>
       <c r="E38" s="12">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="F38" s="13" t="s">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="G38" s="27" t="s">
         <v>174</v>
@@ -2021,119 +2025,120 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="16" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>198</v>
+        <v>43</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>17</v>
+        <v>178</v>
       </c>
       <c r="E39" s="12">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="F39" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G39" s="14"/>
+        <v>28</v>
+      </c>
+      <c r="G39" s="27" t="s">
+        <v>174</v>
+      </c>
       <c r="H39" s="10"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="16" t="s">
-        <v>106</v>
+        <v>183</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>107</v>
+        <v>80</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>108</v>
+        <v>188</v>
       </c>
       <c r="D40" s="11" t="s">
-        <v>177</v>
+        <v>27</v>
       </c>
       <c r="E40" s="12">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="F40" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="G40" s="14" t="s">
-        <v>173</v>
-      </c>
-      <c r="H40" s="10"/>
+        <v>28</v>
+      </c>
+      <c r="G40" s="27" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="16" t="s">
-        <v>111</v>
+        <v>44</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>112</v>
+        <v>45</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="D41" s="11" t="s">
-        <v>177</v>
+        <v>46</v>
+      </c>
+      <c r="D41" s="17" t="s">
+        <v>27</v>
       </c>
       <c r="E41" s="12">
         <v>2022</v>
       </c>
       <c r="F41" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="G41" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="G41" s="27" t="s">
+        <v>174</v>
+      </c>
+      <c r="H41" s="10"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A42" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D42" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E42" s="12">
+        <v>2021</v>
+      </c>
+      <c r="F42" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="G42" s="14" t="s">
         <v>173</v>
-      </c>
-      <c r="H41" s="10"/>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A42" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="B42" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="C42" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="D42" s="11" t="s">
-        <v>177</v>
-      </c>
-      <c r="E42" s="12">
-        <v>2022</v>
-      </c>
-      <c r="F42" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="G42" s="27" t="s">
-        <v>174</v>
       </c>
       <c r="H42" s="10"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="15" t="s">
-        <v>92</v>
+        <v>50</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>93</v>
+        <v>51</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="D43" s="11" t="s">
-        <v>177</v>
+        <v>52</v>
+      </c>
+      <c r="D43" s="17" t="s">
+        <v>27</v>
       </c>
       <c r="E43" s="12">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="F43" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="G43" s="27" t="s">
-        <v>174</v>
+        <v>28</v>
+      </c>
+      <c r="G43" s="14" t="s">
+        <v>173</v>
       </c>
       <c r="H43" s="10"/>
     </row>
@@ -2163,46 +2168,46 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="16" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>71</v>
+        <v>19</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="D45" s="11" t="s">
-        <v>73</v>
+        <v>54</v>
+      </c>
+      <c r="D45" s="17" t="s">
+        <v>27</v>
       </c>
       <c r="E45" s="12">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="F45" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="G45" s="27" t="s">
-        <v>174</v>
+      <c r="G45" s="14" t="s">
+        <v>173</v>
       </c>
       <c r="H45" s="10"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A46" s="16" t="s">
-        <v>127</v>
+      <c r="A46" s="15" t="s">
+        <v>55</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>128</v>
+        <v>19</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="D46" s="17" t="s">
-        <v>117</v>
+        <v>56</v>
+      </c>
+      <c r="D46" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="E46" s="12">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="F46" s="13" t="s">
-        <v>118</v>
+        <v>28</v>
       </c>
       <c r="G46" s="14" t="s">
         <v>173</v>
@@ -2211,70 +2216,70 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" s="16" t="s">
-        <v>133</v>
+        <v>58</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>134</v>
+        <v>36</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>135</v>
+        <v>59</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>117</v>
+        <v>27</v>
       </c>
       <c r="E47" s="12">
         <v>2022</v>
       </c>
       <c r="F47" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="G47" s="14" t="s">
-        <v>173</v>
+        <v>28</v>
+      </c>
+      <c r="G47" s="27" t="s">
+        <v>174</v>
       </c>
       <c r="H47" s="10"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A48" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="B48" s="9" t="s">
-        <v>139</v>
+      <c r="A48" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="B48" s="19" t="s">
+        <v>64</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>140</v>
+        <v>65</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>117</v>
+        <v>27</v>
       </c>
       <c r="E48" s="12">
         <v>2022</v>
       </c>
       <c r="F48" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="G48" s="14" t="s">
-        <v>173</v>
+        <v>28</v>
+      </c>
+      <c r="G48" s="27" t="s">
+        <v>174</v>
       </c>
       <c r="H48" s="10"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="16" t="s">
-        <v>125</v>
+        <v>66</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>126</v>
+        <v>67</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>186</v>
+        <v>68</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>117</v>
+        <v>69</v>
       </c>
       <c r="E49" s="12">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="F49" s="13" t="s">
-        <v>118</v>
+        <v>28</v>
       </c>
       <c r="G49" s="27" t="s">
         <v>174</v>
@@ -2283,22 +2288,22 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="16" t="s">
-        <v>109</v>
+        <v>70</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>110</v>
+        <v>71</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>195</v>
+        <v>72</v>
       </c>
       <c r="D50" s="11" t="s">
-        <v>179</v>
+        <v>73</v>
       </c>
       <c r="E50" s="12">
-        <v>2019</v>
+        <v>2022</v>
       </c>
       <c r="F50" s="13" t="s">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="G50" s="27" t="s">
         <v>174</v>
@@ -2307,196 +2312,192 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" s="20" t="s">
-        <v>163</v>
+        <v>85</v>
       </c>
       <c r="B51" s="21" t="s">
-        <v>164</v>
+        <v>86</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="D51" s="17" t="s">
-        <v>180</v>
-      </c>
-      <c r="E51" s="12">
-        <v>2019</v>
-      </c>
-      <c r="F51" s="13" t="s">
-        <v>166</v>
-      </c>
-      <c r="G51" s="27" t="s">
-        <v>174</v>
+        <v>87</v>
+      </c>
+      <c r="D51" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E51" s="22">
+        <v>2021</v>
+      </c>
+      <c r="F51" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="G51" s="14" t="s">
+        <v>173</v>
       </c>
       <c r="H51" s="10"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A52" s="15" t="s">
-        <v>18</v>
+      <c r="A52" s="16" t="s">
+        <v>74</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>19</v>
+        <v>75</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D52" s="11" t="s">
-        <v>181</v>
+        <v>76</v>
+      </c>
+      <c r="D52" s="17" t="s">
+        <v>27</v>
       </c>
       <c r="E52" s="12">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="F52" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="G52" s="14"/>
+        <v>28</v>
+      </c>
+      <c r="G52" s="27" t="s">
+        <v>174</v>
+      </c>
       <c r="H52" s="10"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A53" s="16" t="s">
-        <v>147</v>
+      <c r="A53" s="15" t="s">
+        <v>77</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>148</v>
+        <v>78</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="D53" s="11" t="s">
-        <v>182</v>
+        <v>194</v>
+      </c>
+      <c r="D53" s="17" t="s">
+        <v>27</v>
       </c>
       <c r="E53" s="12">
-        <v>2019</v>
+        <v>2022</v>
       </c>
       <c r="F53" s="13" t="s">
-        <v>144</v>
-      </c>
-      <c r="G53" s="14" t="s">
-        <v>173</v>
+        <v>28</v>
+      </c>
+      <c r="G53" s="27" t="s">
+        <v>174</v>
       </c>
       <c r="H53" s="10"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" s="16" t="s">
-        <v>149</v>
+        <v>79</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="D54" s="11" t="s">
-        <v>182</v>
+        <v>187</v>
+      </c>
+      <c r="D54" s="17" t="s">
+        <v>27</v>
       </c>
       <c r="E54" s="12">
-        <v>2019</v>
+        <v>2022</v>
       </c>
       <c r="F54" s="13" t="s">
-        <v>144</v>
-      </c>
-      <c r="G54" s="14" t="s">
-        <v>173</v>
+        <v>28</v>
+      </c>
+      <c r="G54" s="27" t="s">
+        <v>174</v>
       </c>
       <c r="H54" s="10"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" s="15" t="s">
-        <v>152</v>
+        <v>12</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>153</v>
+        <v>13</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>154</v>
+        <v>191</v>
       </c>
       <c r="D55" s="11" t="s">
-        <v>182</v>
+        <v>14</v>
       </c>
       <c r="E55" s="12">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="F55" s="13" t="s">
-        <v>144</v>
-      </c>
-      <c r="G55" s="14" t="s">
-        <v>173</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="G55" s="14"/>
       <c r="H55" s="10"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" s="15" t="s">
-        <v>141</v>
+        <v>7</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>142</v>
+        <v>8</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>143</v>
+        <v>9</v>
       </c>
       <c r="D56" s="11" t="s">
-        <v>182</v>
+        <v>10</v>
       </c>
       <c r="E56" s="12">
-        <v>2019</v>
+        <v>2022</v>
       </c>
       <c r="F56" s="13" t="s">
-        <v>144</v>
-      </c>
-      <c r="G56" s="27" t="s">
-        <v>174</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="G56" s="14"/>
       <c r="H56" s="10"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" s="16" t="s">
-        <v>145</v>
+        <v>15</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>146</v>
+        <v>16</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>184</v>
+        <v>198</v>
       </c>
       <c r="D57" s="11" t="s">
-        <v>182</v>
+        <v>17</v>
       </c>
       <c r="E57" s="12">
+        <v>2022</v>
+      </c>
+      <c r="F57" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G57" s="14"/>
+      <c r="H57" s="10"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A58" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B58" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C58" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D58" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="E58" s="12">
         <v>2019</v>
       </c>
-      <c r="F57" s="13" t="s">
-        <v>144</v>
-      </c>
-      <c r="G57" s="27" t="s">
-        <v>174</v>
-      </c>
-      <c r="H57" s="10"/>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A58" s="16" t="s">
-        <v>183</v>
-      </c>
-      <c r="B58" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="C58" s="10" t="s">
-        <v>188</v>
-      </c>
-      <c r="D58" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="E58" s="12">
-        <v>2020</v>
-      </c>
       <c r="F58" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="G58" s="27" t="s">
-        <v>174</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="G58" s="14"/>
+      <c r="H58" s="10"/>
     </row>
   </sheetData>
-  <sortState ref="A2:H58">
-    <sortCondition ref="E2"/>
+  <sortState ref="A2:H59">
+    <sortCondition descending="1" ref="F2:F59"/>
+    <sortCondition ref="A2:A59"/>
   </sortState>
   <conditionalFormatting sqref="F1:F52 F54:F58">
     <cfRule type="notContainsBlanks" dxfId="1" priority="2">
